--- a/Data/All_Months_Gradient.xlsx
+++ b/Data/All_Months_Gradient.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,147 +935,147 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>30</v>
+        <v>1100</v>
       </c>
       <c r="B21" t="n">
-        <v>6.315569400787354</v>
+        <v>3.951002359390259</v>
       </c>
       <c r="C21" t="n">
-        <v>1.685979962348938</v>
+        <v>1.281787157058716</v>
       </c>
       <c r="D21" t="n">
-        <v>0.270251989364624</v>
+        <v>-0.6831467747688293</v>
       </c>
       <c r="E21" t="n">
-        <v>10.6021556854248</v>
+        <v>9.308746337890625</v>
       </c>
       <c r="F21" t="n">
-        <v>6552</v>
+        <v>18476</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>60</v>
+        <v>1200</v>
       </c>
       <c r="B22" t="n">
-        <v>7.577316284179688</v>
+        <v>3.904142141342163</v>
       </c>
       <c r="C22" t="n">
-        <v>1.564885139465332</v>
+        <v>1.283282518386841</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003710400080308318</v>
+        <v>-0.9052648544311523</v>
       </c>
       <c r="E22" t="n">
-        <v>12.00833415985107</v>
+        <v>10.12545680999756</v>
       </c>
       <c r="F22" t="n">
-        <v>6240</v>
+        <v>18568</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>90</v>
+        <v>1300</v>
       </c>
       <c r="B23" t="n">
-        <v>8.482217788696289</v>
+        <v>3.842416048049927</v>
       </c>
       <c r="C23" t="n">
-        <v>1.572412610054016</v>
+        <v>1.282211780548096</v>
       </c>
       <c r="D23" t="n">
-        <v>2.443591117858887</v>
+        <v>-0.9531055688858032</v>
       </c>
       <c r="E23" t="n">
-        <v>12.71911144256592</v>
+        <v>10.13229084014893</v>
       </c>
       <c r="F23" t="n">
-        <v>6468</v>
+        <v>18438</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>120</v>
+        <v>1400</v>
       </c>
       <c r="B24" t="n">
-        <v>9.119797706604004</v>
+        <v>3.818761587142944</v>
       </c>
       <c r="C24" t="n">
-        <v>1.625028967857361</v>
+        <v>1.266582608222961</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.07830239832401276</v>
+        <v>-0.8215433955192566</v>
       </c>
       <c r="E24" t="n">
-        <v>13.7852783203125</v>
+        <v>8.560379028320312</v>
       </c>
       <c r="F24" t="n">
-        <v>6256</v>
+        <v>18366</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="B25" t="n">
-        <v>9.511714935302734</v>
+        <v>3.787439107894897</v>
       </c>
       <c r="C25" t="n">
-        <v>1.694191455841064</v>
+        <v>1.304946541786194</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7514907717704773</v>
+        <v>-1.019741058349609</v>
       </c>
       <c r="E25" t="n">
-        <v>14.82410717010498</v>
+        <v>10.73371887207031</v>
       </c>
       <c r="F25" t="n">
-        <v>6434</v>
+        <v>18392</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>9.777614593505859</v>
+        <v>6.315569400787354</v>
       </c>
       <c r="C26" t="n">
-        <v>1.762335300445557</v>
+        <v>1.685979962348938</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5470451712608337</v>
+        <v>0.270251989364624</v>
       </c>
       <c r="E26" t="n">
-        <v>15.71257877349854</v>
+        <v>10.6021556854248</v>
       </c>
       <c r="F26" t="n">
-        <v>6247</v>
+        <v>6552</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1085,22 +1085,22 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>9.965320587158203</v>
+        <v>7.577316284179688</v>
       </c>
       <c r="C27" t="n">
-        <v>1.802788019180298</v>
+        <v>1.564885139465332</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5777999758720398</v>
+        <v>0.003710400080308318</v>
       </c>
       <c r="E27" t="n">
-        <v>16.54295921325684</v>
+        <v>12.00833415985107</v>
       </c>
       <c r="F27" t="n">
-        <v>6180</v>
+        <v>6240</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1110,22 +1110,22 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="B28" t="n">
-        <v>10.10063076019287</v>
+        <v>8.482217788696289</v>
       </c>
       <c r="C28" t="n">
-        <v>1.844495058059692</v>
+        <v>1.572412610054016</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.33924925327301</v>
+        <v>2.443591117858887</v>
       </c>
       <c r="E28" t="n">
-        <v>16.85392379760742</v>
+        <v>12.71911144256592</v>
       </c>
       <c r="F28" t="n">
-        <v>6304</v>
+        <v>6468</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1135,22 +1135,22 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="B29" t="n">
-        <v>10.11959457397461</v>
+        <v>9.119797706604004</v>
       </c>
       <c r="C29" t="n">
-        <v>1.882947444915771</v>
+        <v>1.625028967857361</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.7583252191543579</v>
+        <v>-0.07830239832401276</v>
       </c>
       <c r="E29" t="n">
-        <v>17.69455528259277</v>
+        <v>13.7852783203125</v>
       </c>
       <c r="F29" t="n">
-        <v>6171</v>
+        <v>6256</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1160,22 +1160,22 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="B30" t="n">
-        <v>10.17387580871582</v>
+        <v>9.511714935302734</v>
       </c>
       <c r="C30" t="n">
-        <v>1.866480827331543</v>
+        <v>1.694191455841064</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.8471723794937134</v>
+        <v>-0.7514907717704773</v>
       </c>
       <c r="E30" t="n">
-        <v>18.86323738098145</v>
+        <v>14.82410717010498</v>
       </c>
       <c r="F30" t="n">
-        <v>6190</v>
+        <v>6434</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1185,22 +1185,22 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="B31" t="n">
-        <v>10.17632865905762</v>
+        <v>9.777614593505859</v>
       </c>
       <c r="C31" t="n">
-        <v>1.888086795806885</v>
+        <v>1.762335300445557</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03446520119905472</v>
+        <v>0.5470451712608337</v>
       </c>
       <c r="E31" t="n">
-        <v>19.54667663574219</v>
+        <v>15.71257877349854</v>
       </c>
       <c r="F31" t="n">
-        <v>10252</v>
+        <v>6247</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="B32" t="n">
-        <v>10.18867301940918</v>
+        <v>9.965320587158203</v>
       </c>
       <c r="C32" t="n">
-        <v>1.851349711418152</v>
+        <v>1.802788019180298</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6051375865936279</v>
+        <v>0.5777999758720398</v>
       </c>
       <c r="E32" t="n">
-        <v>20.19252777099609</v>
+        <v>16.54295921325684</v>
       </c>
       <c r="F32" t="n">
-        <v>10030</v>
+        <v>6180</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1235,22 +1235,22 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="B33" t="n">
-        <v>10.20582580566406</v>
+        <v>10.10063076019287</v>
       </c>
       <c r="C33" t="n">
-        <v>1.857303380966187</v>
+        <v>1.844495058059692</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7896664142608643</v>
+        <v>-1.33924925327301</v>
       </c>
       <c r="E33" t="n">
-        <v>20.15493965148926</v>
+        <v>16.85392379760742</v>
       </c>
       <c r="F33" t="n">
-        <v>10152</v>
+        <v>6304</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1260,22 +1260,22 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="B34" t="n">
-        <v>10.19855499267578</v>
+        <v>10.11959457397461</v>
       </c>
       <c r="C34" t="n">
-        <v>1.824964761734009</v>
+        <v>1.882947444915771</v>
       </c>
       <c r="D34" t="n">
-        <v>1.536324501037598</v>
+        <v>-0.7583252191543579</v>
       </c>
       <c r="E34" t="n">
-        <v>19.7995491027832</v>
+        <v>17.69455528259277</v>
       </c>
       <c r="F34" t="n">
-        <v>9904</v>
+        <v>6171</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1285,22 +1285,22 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="B35" t="n">
-        <v>10.15300273895264</v>
+        <v>10.17387580871582</v>
       </c>
       <c r="C35" t="n">
-        <v>1.861050128936768</v>
+        <v>1.866480827331543</v>
       </c>
       <c r="D35" t="n">
-        <v>1.613211631774902</v>
+        <v>-0.8471723794937134</v>
       </c>
       <c r="E35" t="n">
-        <v>17.99526786804199</v>
+        <v>18.86323738098145</v>
       </c>
       <c r="F35" t="n">
-        <v>19832</v>
+        <v>6190</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1310,22 +1310,22 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>10.09015369415283</v>
+        <v>10.17632865905762</v>
       </c>
       <c r="C36" t="n">
-        <v>1.889365196228027</v>
+        <v>1.888086795806885</v>
       </c>
       <c r="D36" t="n">
-        <v>1.814826369285583</v>
+        <v>0.03446520119905472</v>
       </c>
       <c r="E36" t="n">
-        <v>17.46218490600586</v>
+        <v>19.54667663574219</v>
       </c>
       <c r="F36" t="n">
-        <v>19205</v>
+        <v>10252</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1335,22 +1335,22 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B37" t="n">
-        <v>10.09342861175537</v>
+        <v>10.18867301940918</v>
       </c>
       <c r="C37" t="n">
-        <v>1.850640535354614</v>
+        <v>1.851349711418152</v>
       </c>
       <c r="D37" t="n">
-        <v>1.534615993499756</v>
+        <v>0.6051375865936279</v>
       </c>
       <c r="E37" t="n">
-        <v>17.21443939208984</v>
+        <v>20.19252777099609</v>
       </c>
       <c r="F37" t="n">
-        <v>18903</v>
+        <v>10030</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1360,22 +1360,22 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="B38" t="n">
-        <v>10.1450023651123</v>
+        <v>10.20582580566406</v>
       </c>
       <c r="C38" t="n">
-        <v>1.849738955497742</v>
+        <v>1.857303380966187</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7520772218704224</v>
+        <v>0.7896664142608643</v>
       </c>
       <c r="E38" t="n">
-        <v>16.17731857299805</v>
+        <v>20.15493965148926</v>
       </c>
       <c r="F38" t="n">
-        <v>18785</v>
+        <v>10152</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B39" t="n">
-        <v>10.23068904876709</v>
+        <v>10.19855499267578</v>
       </c>
       <c r="C39" t="n">
-        <v>1.933445811271667</v>
+        <v>1.824964761734009</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8067523837089539</v>
+        <v>1.536324501037598</v>
       </c>
       <c r="E39" t="n">
-        <v>17.35795974731445</v>
+        <v>19.7995491027832</v>
       </c>
       <c r="F39" t="n">
-        <v>18618</v>
+        <v>9904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1410,272 +1410,272 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="B40" t="n">
-        <v>14.60256576538086</v>
+        <v>10.15300273895264</v>
       </c>
       <c r="C40" t="n">
-        <v>2.750518560409546</v>
+        <v>1.861050128936768</v>
       </c>
       <c r="D40" t="n">
-        <v>6.486138820648193</v>
+        <v>1.613211631774902</v>
       </c>
       <c r="E40" t="n">
-        <v>21.52865409851074</v>
+        <v>17.99526786804199</v>
       </c>
       <c r="F40" t="n">
-        <v>6552</v>
+        <v>19832</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>60</v>
+        <v>700</v>
       </c>
       <c r="B41" t="n">
-        <v>16.07962989807129</v>
+        <v>10.09015369415283</v>
       </c>
       <c r="C41" t="n">
-        <v>2.61680269241333</v>
+        <v>1.889365196228027</v>
       </c>
       <c r="D41" t="n">
-        <v>6.745845794677734</v>
+        <v>1.814826369285583</v>
       </c>
       <c r="E41" t="n">
-        <v>22.95020866394043</v>
+        <v>17.46218490600586</v>
       </c>
       <c r="F41" t="n">
-        <v>6240</v>
+        <v>19205</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>90</v>
+        <v>800</v>
       </c>
       <c r="B42" t="n">
-        <v>17.40145301818848</v>
+        <v>10.09342861175537</v>
       </c>
       <c r="C42" t="n">
-        <v>2.631913900375366</v>
+        <v>1.850640535354614</v>
       </c>
       <c r="D42" t="n">
-        <v>6.486138820648193</v>
+        <v>1.534615993499756</v>
       </c>
       <c r="E42" t="n">
-        <v>24.89288711547852</v>
+        <v>17.21443939208984</v>
       </c>
       <c r="F42" t="n">
-        <v>6468</v>
+        <v>18903</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="B43" t="n">
-        <v>18.24579429626465</v>
+        <v>10.1450023651123</v>
       </c>
       <c r="C43" t="n">
-        <v>2.627302408218384</v>
+        <v>1.849738955497742</v>
       </c>
       <c r="D43" t="n">
-        <v>6.017982482910156</v>
+        <v>0.7520772218704224</v>
       </c>
       <c r="E43" t="n">
-        <v>25.24314880371094</v>
+        <v>16.17731857299805</v>
       </c>
       <c r="F43" t="n">
-        <v>6256</v>
+        <v>18785</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="B44" t="n">
-        <v>18.84855270385742</v>
+        <v>10.23068904876709</v>
       </c>
       <c r="C44" t="n">
-        <v>2.666120767593384</v>
+        <v>1.933445811271667</v>
       </c>
       <c r="D44" t="n">
-        <v>5.655759334564209</v>
+        <v>0.8067523837089539</v>
       </c>
       <c r="E44" t="n">
-        <v>25.52335929870605</v>
+        <v>17.35795974731445</v>
       </c>
       <c r="F44" t="n">
-        <v>6434</v>
+        <v>18618</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>180</v>
+        <v>1100</v>
       </c>
       <c r="B45" t="n">
-        <v>19.34533309936523</v>
+        <v>10.23025608062744</v>
       </c>
       <c r="C45" t="n">
-        <v>2.721889019012451</v>
+        <v>1.984598636627197</v>
       </c>
       <c r="D45" t="n">
-        <v>5.676262378692627</v>
+        <v>0.8545932173728943</v>
       </c>
       <c r="E45" t="n">
-        <v>26.55535507202148</v>
+        <v>19.19128799438477</v>
       </c>
       <c r="F45" t="n">
-        <v>6247</v>
+        <v>18476</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>210</v>
+        <v>1200</v>
       </c>
       <c r="B46" t="n">
-        <v>19.7908992767334</v>
+        <v>10.20132637023926</v>
       </c>
       <c r="C46" t="n">
-        <v>2.773998975753784</v>
+        <v>2.017646074295044</v>
       </c>
       <c r="D46" t="n">
-        <v>6.335782051086426</v>
+        <v>0.8375071883201599</v>
       </c>
       <c r="E46" t="n">
-        <v>27.11919212341309</v>
+        <v>18.7402172088623</v>
       </c>
       <c r="F46" t="n">
-        <v>6181</v>
+        <v>18568</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>240</v>
+        <v>1300</v>
       </c>
       <c r="B47" t="n">
-        <v>20.08819770812988</v>
+        <v>10.15693473815918</v>
       </c>
       <c r="C47" t="n">
-        <v>2.814575910568237</v>
+        <v>2.02303671836853</v>
       </c>
       <c r="D47" t="n">
-        <v>5.830036163330078</v>
+        <v>0.8238384127616882</v>
       </c>
       <c r="E47" t="n">
-        <v>27.66936111450195</v>
+        <v>18.05677795410156</v>
       </c>
       <c r="F47" t="n">
-        <v>6304</v>
+        <v>18438</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>270</v>
+        <v>1400</v>
       </c>
       <c r="B48" t="n">
-        <v>20.1761302947998</v>
+        <v>10.11833477020264</v>
       </c>
       <c r="C48" t="n">
-        <v>2.828741788864136</v>
+        <v>2.039085626602173</v>
       </c>
       <c r="D48" t="n">
-        <v>5.286701679229736</v>
+        <v>1.051082253456116</v>
       </c>
       <c r="E48" t="n">
-        <v>27.71378517150879</v>
+        <v>17.29816055297852</v>
       </c>
       <c r="F48" t="n">
-        <v>6172</v>
+        <v>18366</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="B49" t="n">
-        <v>20.33817291259766</v>
+        <v>10.08100700378418</v>
       </c>
       <c r="C49" t="n">
-        <v>2.804582118988037</v>
+        <v>2.092822313308716</v>
       </c>
       <c r="D49" t="n">
-        <v>4.866385936737061</v>
+        <v>1.206564784049988</v>
       </c>
       <c r="E49" t="n">
-        <v>27.54292488098145</v>
+        <v>19.58426666259766</v>
       </c>
       <c r="F49" t="n">
-        <v>6190</v>
+        <v>18392</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="B50" t="n">
-        <v>20.41377830505371</v>
+        <v>14.60256576538086</v>
       </c>
       <c r="C50" t="n">
-        <v>2.801793336868286</v>
+        <v>2.750518560409546</v>
       </c>
       <c r="D50" t="n">
-        <v>4.563963890075684</v>
+        <v>6.486138820648193</v>
       </c>
       <c r="E50" t="n">
-        <v>27.09869003295898</v>
+        <v>21.52865409851074</v>
       </c>
       <c r="F50" t="n">
-        <v>10252</v>
+        <v>6552</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1685,22 +1685,22 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>20.49360084533691</v>
+        <v>16.07962989807129</v>
       </c>
       <c r="C51" t="n">
-        <v>2.777478456497192</v>
+        <v>2.61680269241333</v>
       </c>
       <c r="D51" t="n">
-        <v>4.37089204788208</v>
+        <v>6.745845794677734</v>
       </c>
       <c r="E51" t="n">
-        <v>27.01667594909668</v>
+        <v>22.95020866394043</v>
       </c>
       <c r="F51" t="n">
-        <v>10030</v>
+        <v>6240</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1710,22 +1710,22 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>20.52917289733887</v>
+        <v>17.40145301818848</v>
       </c>
       <c r="C52" t="n">
-        <v>2.861633062362671</v>
+        <v>2.631913900375366</v>
       </c>
       <c r="D52" t="n">
-        <v>4.26495885848999</v>
+        <v>6.486138820648193</v>
       </c>
       <c r="E52" t="n">
-        <v>27.72916221618652</v>
+        <v>24.89288711547852</v>
       </c>
       <c r="F52" t="n">
-        <v>10152</v>
+        <v>6468</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1735,22 +1735,22 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="B53" t="n">
-        <v>20.54895210266113</v>
+        <v>18.24579429626465</v>
       </c>
       <c r="C53" t="n">
-        <v>2.880281209945679</v>
+        <v>2.627302408218384</v>
       </c>
       <c r="D53" t="n">
-        <v>4.196614742279053</v>
+        <v>6.017982482910156</v>
       </c>
       <c r="E53" t="n">
-        <v>28.35451126098633</v>
+        <v>25.24314880371094</v>
       </c>
       <c r="F53" t="n">
-        <v>9904</v>
+        <v>6256</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1760,22 +1760,22 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="B54" t="n">
-        <v>20.51539993286133</v>
+        <v>18.84855270385742</v>
       </c>
       <c r="C54" t="n">
-        <v>2.897432565689087</v>
+        <v>2.666120767593384</v>
       </c>
       <c r="D54" t="n">
-        <v>4.251289844512939</v>
+        <v>5.655759334564209</v>
       </c>
       <c r="E54" t="n">
-        <v>28.36647033691406</v>
+        <v>25.52335929870605</v>
       </c>
       <c r="F54" t="n">
-        <v>19832</v>
+        <v>6434</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="B55" t="n">
-        <v>20.51070213317871</v>
+        <v>19.34533309936523</v>
       </c>
       <c r="C55" t="n">
-        <v>2.934039831161499</v>
+        <v>2.721889019012451</v>
       </c>
       <c r="D55" t="n">
-        <v>3.865146398544312</v>
+        <v>5.676262378692627</v>
       </c>
       <c r="E55" t="n">
-        <v>28.87221527099609</v>
+        <v>26.55535507202148</v>
       </c>
       <c r="F55" t="n">
-        <v>19205</v>
+        <v>6247</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1810,22 +1810,22 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="B56" t="n">
-        <v>20.6015682220459</v>
+        <v>19.7908992767334</v>
       </c>
       <c r="C56" t="n">
-        <v>2.925995111465454</v>
+        <v>2.773998975753784</v>
       </c>
       <c r="D56" t="n">
-        <v>3.95741081237793</v>
+        <v>6.335782051086426</v>
       </c>
       <c r="E56" t="n">
-        <v>29.33695602416992</v>
+        <v>27.11919212341309</v>
       </c>
       <c r="F56" t="n">
-        <v>18903</v>
+        <v>6181</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1835,22 +1835,22 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="B57" t="n">
-        <v>20.71021842956543</v>
+        <v>20.08819770812988</v>
       </c>
       <c r="C57" t="n">
-        <v>2.854081630706787</v>
+        <v>2.814575910568237</v>
       </c>
       <c r="D57" t="n">
-        <v>3.923238754272461</v>
+        <v>5.830036163330078</v>
       </c>
       <c r="E57" t="n">
-        <v>28.4826545715332</v>
+        <v>27.66936111450195</v>
       </c>
       <c r="F57" t="n">
-        <v>18785</v>
+        <v>6304</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1860,22 +1860,22 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="B58" t="n">
-        <v>20.81902503967285</v>
+        <v>20.1761302947998</v>
       </c>
       <c r="C58" t="n">
-        <v>2.864112854003906</v>
+        <v>2.828741788864136</v>
       </c>
       <c r="D58" t="n">
-        <v>3.960828065872192</v>
+        <v>5.286701679229736</v>
       </c>
       <c r="E58" t="n">
-        <v>29.22931289672852</v>
+        <v>27.71378517150879</v>
       </c>
       <c r="F58" t="n">
-        <v>18618</v>
+        <v>6172</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -1885,397 +1885,397 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="B59" t="n">
-        <v>22.51419448852539</v>
+        <v>20.33817291259766</v>
       </c>
       <c r="C59" t="n">
-        <v>3.137902975082397</v>
+        <v>2.804582118988037</v>
       </c>
       <c r="D59" t="n">
-        <v>14.19192504882812</v>
+        <v>4.866385936737061</v>
       </c>
       <c r="E59" t="n">
-        <v>29.53515243530273</v>
+        <v>27.54292488098145</v>
       </c>
       <c r="F59" t="n">
-        <v>6552</v>
+        <v>6190</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="B60" t="n">
-        <v>24.12656211853027</v>
+        <v>20.41377830505371</v>
       </c>
       <c r="C60" t="n">
-        <v>2.905138731002808</v>
+        <v>2.801793336868286</v>
       </c>
       <c r="D60" t="n">
-        <v>15.00350952148438</v>
+        <v>4.563963890075684</v>
       </c>
       <c r="E60" t="n">
-        <v>32.36459350585938</v>
+        <v>27.09869003295898</v>
       </c>
       <c r="F60" t="n">
-        <v>6240</v>
+        <v>10252</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="B61" t="n">
-        <v>25.53280830383301</v>
+        <v>20.49360084533691</v>
       </c>
       <c r="C61" t="n">
-        <v>2.76029896736145</v>
+        <v>2.777478456497192</v>
       </c>
       <c r="D61" t="n">
-        <v>14.70792198181152</v>
+        <v>4.37089204788208</v>
       </c>
       <c r="E61" t="n">
-        <v>33.02411270141602</v>
+        <v>27.01667594909668</v>
       </c>
       <c r="F61" t="n">
-        <v>6468</v>
+        <v>10030</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="B62" t="n">
-        <v>26.46682739257812</v>
+        <v>20.52917289733887</v>
       </c>
       <c r="C62" t="n">
-        <v>2.755329847335815</v>
+        <v>2.861633062362671</v>
       </c>
       <c r="D62" t="n">
-        <v>14.11674690246582</v>
+        <v>4.26495885848999</v>
       </c>
       <c r="E62" t="n">
-        <v>34.26113891601562</v>
+        <v>27.72916221618652</v>
       </c>
       <c r="F62" t="n">
-        <v>6256</v>
+        <v>10152</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="B63" t="n">
-        <v>27.05036735534668</v>
+        <v>20.54895210266113</v>
       </c>
       <c r="C63" t="n">
-        <v>2.754725933074951</v>
+        <v>2.880281209945679</v>
       </c>
       <c r="D63" t="n">
-        <v>13.69301414489746</v>
+        <v>4.196614742279053</v>
       </c>
       <c r="E63" t="n">
-        <v>35.71345138549805</v>
+        <v>28.35451126098633</v>
       </c>
       <c r="F63" t="n">
-        <v>6434</v>
+        <v>9904</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="B64" t="n">
-        <v>27.56928253173828</v>
+        <v>20.51539993286133</v>
       </c>
       <c r="C64" t="n">
-        <v>2.774375200271606</v>
+        <v>2.897432565689087</v>
       </c>
       <c r="D64" t="n">
-        <v>13.48456382751465</v>
+        <v>4.251289844512939</v>
       </c>
       <c r="E64" t="n">
-        <v>36.88555145263672</v>
+        <v>28.36647033691406</v>
       </c>
       <c r="F64" t="n">
-        <v>6248</v>
+        <v>19832</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>210</v>
+        <v>700</v>
       </c>
       <c r="B65" t="n">
-        <v>27.88558578491211</v>
+        <v>20.51070213317871</v>
       </c>
       <c r="C65" t="n">
-        <v>2.755043268203735</v>
+        <v>2.934039831161499</v>
       </c>
       <c r="D65" t="n">
-        <v>13.60758399963379</v>
+        <v>3.865146398544312</v>
       </c>
       <c r="E65" t="n">
-        <v>36.65659713745117</v>
+        <v>28.87221527099609</v>
       </c>
       <c r="F65" t="n">
-        <v>6182</v>
+        <v>19205</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="B66" t="n">
-        <v>28.12583923339844</v>
+        <v>20.6015682220459</v>
       </c>
       <c r="C66" t="n">
-        <v>2.763452291488647</v>
+        <v>2.925995111465454</v>
       </c>
       <c r="D66" t="n">
-        <v>13.7562313079834</v>
+        <v>3.95741081237793</v>
       </c>
       <c r="E66" t="n">
-        <v>36.76594924926758</v>
+        <v>29.33695602416992</v>
       </c>
       <c r="F66" t="n">
-        <v>6308</v>
+        <v>18903</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="B67" t="n">
-        <v>28.21671295166016</v>
+        <v>20.71021842956543</v>
       </c>
       <c r="C67" t="n">
-        <v>2.773191690444946</v>
+        <v>2.854081630706787</v>
       </c>
       <c r="D67" t="n">
-        <v>13.241943359375</v>
+        <v>3.923238754272461</v>
       </c>
       <c r="E67" t="n">
-        <v>36.5164909362793</v>
+        <v>28.4826545715332</v>
       </c>
       <c r="F67" t="n">
-        <v>6172</v>
+        <v>18785</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="B68" t="n">
-        <v>28.34878349304199</v>
+        <v>20.81902503967285</v>
       </c>
       <c r="C68" t="n">
-        <v>2.773341655731201</v>
+        <v>2.864112854003906</v>
       </c>
       <c r="D68" t="n">
-        <v>12.65589332580566</v>
+        <v>3.960828065872192</v>
       </c>
       <c r="E68" t="n">
-        <v>36.03125</v>
+        <v>29.22931289672852</v>
       </c>
       <c r="F68" t="n">
-        <v>6190</v>
+        <v>18618</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="B69" t="n">
-        <v>28.42716598510742</v>
+        <v>20.79930686950684</v>
       </c>
       <c r="C69" t="n">
-        <v>2.843748092651367</v>
+        <v>2.995251417160034</v>
       </c>
       <c r="D69" t="n">
-        <v>12.46282196044922</v>
+        <v>3.875397920608521</v>
       </c>
       <c r="E69" t="n">
-        <v>36.23286437988281</v>
+        <v>29.5693244934082</v>
       </c>
       <c r="F69" t="n">
-        <v>10252</v>
+        <v>18476</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="B70" t="n">
-        <v>28.46798896789551</v>
+        <v>20.72659873962402</v>
       </c>
       <c r="C70" t="n">
-        <v>2.877841711044312</v>
+        <v>3.061853170394897</v>
       </c>
       <c r="D70" t="n">
-        <v>12.41327285766602</v>
+        <v>3.844643115997314</v>
       </c>
       <c r="E70" t="n">
-        <v>37.03248977661133</v>
+        <v>29.18489074707031</v>
       </c>
       <c r="F70" t="n">
-        <v>10030</v>
+        <v>18568</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="B71" t="n">
-        <v>28.50840950012207</v>
+        <v>20.66297912597656</v>
       </c>
       <c r="C71" t="n">
-        <v>2.937296152114868</v>
+        <v>3.103049278259277</v>
       </c>
       <c r="D71" t="n">
-        <v>12.40472984313965</v>
+        <v>3.417493343353271</v>
       </c>
       <c r="E71" t="n">
-        <v>38.52067947387695</v>
+        <v>29.30961799621582</v>
       </c>
       <c r="F71" t="n">
-        <v>10152</v>
+        <v>18438</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="B72" t="n">
-        <v>28.50971603393555</v>
+        <v>20.60930633544922</v>
       </c>
       <c r="C72" t="n">
-        <v>2.987645387649536</v>
+        <v>3.153537034988403</v>
       </c>
       <c r="D72" t="n">
-        <v>11.92632102966309</v>
+        <v>3.420910358428955</v>
       </c>
       <c r="E72" t="n">
-        <v>39.14089965820312</v>
+        <v>30.0135612487793</v>
       </c>
       <c r="F72" t="n">
-        <v>9903</v>
+        <v>18366</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="B73" t="n">
-        <v>28.51934432983398</v>
+        <v>20.6399040222168</v>
       </c>
       <c r="C73" t="n">
-        <v>3.01186466217041</v>
+        <v>3.150049686431885</v>
       </c>
       <c r="D73" t="n">
-        <v>11.51967430114746</v>
+        <v>3.520009279251099</v>
       </c>
       <c r="E73" t="n">
-        <v>39.11527252197266</v>
+        <v>30.31769180297852</v>
       </c>
       <c r="F73" t="n">
-        <v>19832</v>
+        <v>18392</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="B74" t="n">
-        <v>28.55624198913574</v>
+        <v>22.51419448852539</v>
       </c>
       <c r="C74" t="n">
-        <v>3.02643895149231</v>
+        <v>3.137902975082397</v>
       </c>
       <c r="D74" t="n">
-        <v>11.12669658660889</v>
+        <v>14.19192504882812</v>
       </c>
       <c r="E74" t="n">
-        <v>38.40278625488281</v>
+        <v>29.53515243530273</v>
       </c>
       <c r="F74" t="n">
-        <v>19205</v>
+        <v>6552</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2285,22 +2285,22 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="B75" t="n">
-        <v>28.64361190795898</v>
+        <v>24.12656211853027</v>
       </c>
       <c r="C75" t="n">
-        <v>3.0376877784729</v>
+        <v>2.905138731002808</v>
       </c>
       <c r="D75" t="n">
-        <v>11.51113128662109</v>
+        <v>15.00350952148438</v>
       </c>
       <c r="E75" t="n">
-        <v>38.31735992431641</v>
+        <v>32.36459350585938</v>
       </c>
       <c r="F75" t="n">
-        <v>18903</v>
+        <v>6240</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2310,22 +2310,22 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="B76" t="n">
-        <v>28.74390411376953</v>
+        <v>25.53280830383301</v>
       </c>
       <c r="C76" t="n">
-        <v>2.994498729705811</v>
+        <v>2.76029896736145</v>
       </c>
       <c r="D76" t="n">
-        <v>11.406907081604</v>
+        <v>14.70792198181152</v>
       </c>
       <c r="E76" t="n">
-        <v>38.16699981689453</v>
+        <v>33.02411270141602</v>
       </c>
       <c r="F76" t="n">
-        <v>18785</v>
+        <v>6468</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2335,22 +2335,22 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="B77" t="n">
-        <v>28.8344783782959</v>
+        <v>26.46682739257812</v>
       </c>
       <c r="C77" t="n">
-        <v>3.077059030532837</v>
+        <v>2.755329847335815</v>
       </c>
       <c r="D77" t="n">
-        <v>11.34539699554443</v>
+        <v>14.11674690246582</v>
       </c>
       <c r="E77" t="n">
-        <v>38.41133117675781</v>
+        <v>34.26113891601562</v>
       </c>
       <c r="F77" t="n">
-        <v>18618</v>
+        <v>6256</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2360,3799 +2360,5299 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="B78" t="n">
-        <v>29.98631286621094</v>
+        <v>27.05036735534668</v>
       </c>
       <c r="C78" t="n">
-        <v>2.145551443099976</v>
+        <v>2.754725933074951</v>
       </c>
       <c r="D78" t="n">
-        <v>23.83526229858398</v>
+        <v>13.69301414489746</v>
       </c>
       <c r="E78" t="n">
-        <v>36.26703643798828</v>
+        <v>35.71345138549805</v>
       </c>
       <c r="F78" t="n">
-        <v>6552</v>
+        <v>6434</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B79" t="n">
-        <v>31.70875930786133</v>
+        <v>27.56928253173828</v>
       </c>
       <c r="C79" t="n">
-        <v>2.006237030029297</v>
+        <v>2.774375200271606</v>
       </c>
       <c r="D79" t="n">
-        <v>24.49136543273926</v>
+        <v>13.48456382751465</v>
       </c>
       <c r="E79" t="n">
-        <v>38.44037628173828</v>
+        <v>36.88555145263672</v>
       </c>
       <c r="F79" t="n">
-        <v>6240</v>
+        <v>6248</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="B80" t="n">
-        <v>33.11044692993164</v>
+        <v>27.88558578491211</v>
       </c>
       <c r="C80" t="n">
-        <v>2.100374221801758</v>
+        <v>2.755043268203735</v>
       </c>
       <c r="D80" t="n">
-        <v>24.81258201599121</v>
+        <v>13.60758399963379</v>
       </c>
       <c r="E80" t="n">
-        <v>40.62567520141602</v>
+        <v>36.65659713745117</v>
       </c>
       <c r="F80" t="n">
-        <v>6468</v>
+        <v>6182</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="B81" t="n">
-        <v>34.15375900268555</v>
+        <v>28.12583923339844</v>
       </c>
       <c r="C81" t="n">
-        <v>2.27385401725769</v>
+        <v>2.763452291488647</v>
       </c>
       <c r="D81" t="n">
-        <v>24.00954055786133</v>
+        <v>13.7562313079834</v>
       </c>
       <c r="E81" t="n">
-        <v>41.07845306396484</v>
+        <v>36.76594924926758</v>
       </c>
       <c r="F81" t="n">
-        <v>6256</v>
+        <v>6308</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="B82" t="n">
-        <v>34.79726791381836</v>
+        <v>28.21671295166016</v>
       </c>
       <c r="C82" t="n">
-        <v>2.421594381332397</v>
+        <v>2.773191690444946</v>
       </c>
       <c r="D82" t="n">
-        <v>23.44228553771973</v>
+        <v>13.241943359375</v>
       </c>
       <c r="E82" t="n">
-        <v>42.01134872436523</v>
+        <v>36.5164909362793</v>
       </c>
       <c r="F82" t="n">
-        <v>6434</v>
+        <v>6172</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="B83" t="n">
-        <v>35.18770599365234</v>
+        <v>28.34878349304199</v>
       </c>
       <c r="C83" t="n">
-        <v>2.548045873641968</v>
+        <v>2.773341655731201</v>
       </c>
       <c r="D83" t="n">
-        <v>23.24750518798828</v>
+        <v>12.65589332580566</v>
       </c>
       <c r="E83" t="n">
-        <v>43.01258850097656</v>
+        <v>36.03125</v>
       </c>
       <c r="F83" t="n">
-        <v>6248</v>
+        <v>6190</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="B84" t="n">
-        <v>35.40071487426758</v>
+        <v>28.42716598510742</v>
       </c>
       <c r="C84" t="n">
-        <v>2.627097368240356</v>
+        <v>2.843748092651367</v>
       </c>
       <c r="D84" t="n">
-        <v>23.41152954101562</v>
+        <v>12.46282196044922</v>
       </c>
       <c r="E84" t="n">
-        <v>43.76095581054688</v>
+        <v>36.23286437988281</v>
       </c>
       <c r="F84" t="n">
-        <v>6182</v>
+        <v>10252</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="B85" t="n">
-        <v>35.57366943359375</v>
+        <v>28.46798896789551</v>
       </c>
       <c r="C85" t="n">
-        <v>2.695345640182495</v>
+        <v>2.877841711044312</v>
       </c>
       <c r="D85" t="n">
-        <v>23.5994758605957</v>
+        <v>12.41327285766602</v>
       </c>
       <c r="E85" t="n">
-        <v>43.96940612792969</v>
+        <v>37.03248977661133</v>
       </c>
       <c r="F85" t="n">
-        <v>6308</v>
+        <v>10030</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="B86" t="n">
-        <v>35.69401550292969</v>
+        <v>28.50840950012207</v>
       </c>
       <c r="C86" t="n">
-        <v>2.736415863037109</v>
+        <v>2.937296152114868</v>
       </c>
       <c r="D86" t="n">
-        <v>23.69515800476074</v>
+        <v>12.40472984313965</v>
       </c>
       <c r="E86" t="n">
-        <v>44.83053970336914</v>
+        <v>38.52067947387695</v>
       </c>
       <c r="F86" t="n">
-        <v>6172</v>
+        <v>10152</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B87" t="n">
-        <v>35.8123893737793</v>
+        <v>28.50971603393555</v>
       </c>
       <c r="C87" t="n">
-        <v>2.72094464302063</v>
+        <v>2.987645387649536</v>
       </c>
       <c r="D87" t="n">
-        <v>23.74299812316895</v>
+        <v>11.92632102966309</v>
       </c>
       <c r="E87" t="n">
-        <v>46.13932800292969</v>
+        <v>39.14089965820312</v>
       </c>
       <c r="F87" t="n">
-        <v>6190</v>
+        <v>9903</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="B88" t="n">
-        <v>35.89648818969727</v>
+        <v>28.51934432983398</v>
       </c>
       <c r="C88" t="n">
-        <v>2.755301713943481</v>
+        <v>3.01186466217041</v>
       </c>
       <c r="D88" t="n">
-        <v>23.10739898681641</v>
+        <v>11.51967430114746</v>
       </c>
       <c r="E88" t="n">
-        <v>46.85352325439453</v>
+        <v>39.11527252197266</v>
       </c>
       <c r="F88" t="n">
-        <v>10252</v>
+        <v>19832</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="B89" t="n">
-        <v>35.96470260620117</v>
+        <v>28.55624198913574</v>
       </c>
       <c r="C89" t="n">
-        <v>2.768163919448853</v>
+        <v>3.02643895149231</v>
       </c>
       <c r="D89" t="n">
-        <v>23.30730628967285</v>
+        <v>11.12669658660889</v>
       </c>
       <c r="E89" t="n">
-        <v>45.88987350463867</v>
+        <v>38.40278625488281</v>
       </c>
       <c r="F89" t="n">
-        <v>10030</v>
+        <v>19205</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="B90" t="n">
-        <v>36.00328826904297</v>
+        <v>28.64361190795898</v>
       </c>
       <c r="C90" t="n">
-        <v>2.819300174713135</v>
+        <v>3.0376877784729</v>
       </c>
       <c r="D90" t="n">
-        <v>21.93871688842773</v>
+        <v>11.51113128662109</v>
       </c>
       <c r="E90" t="n">
-        <v>45.99922180175781</v>
+        <v>38.31735992431641</v>
       </c>
       <c r="F90" t="n">
-        <v>10152</v>
+        <v>18903</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="B91" t="n">
-        <v>36.02554702758789</v>
+        <v>28.74390411376953</v>
       </c>
       <c r="C91" t="n">
-        <v>2.873331785202026</v>
+        <v>2.994498729705811</v>
       </c>
       <c r="D91" t="n">
-        <v>21.93188285827637</v>
+        <v>11.406907081604</v>
       </c>
       <c r="E91" t="n">
-        <v>45.76343536376953</v>
+        <v>38.16699981689453</v>
       </c>
       <c r="F91" t="n">
-        <v>9904</v>
+        <v>18785</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="B92" t="n">
-        <v>36.03659057617188</v>
+        <v>28.8344783782959</v>
       </c>
       <c r="C92" t="n">
-        <v>2.915386915206909</v>
+        <v>3.077059030532837</v>
       </c>
       <c r="D92" t="n">
-        <v>20.69827270507812</v>
+        <v>11.34539699554443</v>
       </c>
       <c r="E92" t="n">
-        <v>46.70658111572266</v>
+        <v>38.41133117675781</v>
       </c>
       <c r="F92" t="n">
-        <v>19832</v>
+        <v>18618</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="B93" t="n">
-        <v>36.09396743774414</v>
+        <v>28.88203620910645</v>
       </c>
       <c r="C93" t="n">
-        <v>2.974485874176025</v>
+        <v>3.235722541809082</v>
       </c>
       <c r="D93" t="n">
-        <v>20.01654052734375</v>
+        <v>11.2804708480835</v>
       </c>
       <c r="E93" t="n">
-        <v>47.66168975830078</v>
+        <v>38.84702301025391</v>
       </c>
       <c r="F93" t="n">
-        <v>19205</v>
+        <v>18476</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="B94" t="n">
-        <v>36.17654800415039</v>
+        <v>28.87217330932617</v>
       </c>
       <c r="C94" t="n">
-        <v>2.950138807296753</v>
+        <v>3.326181650161743</v>
       </c>
       <c r="D94" t="n">
-        <v>19.87643814086914</v>
+        <v>11.16770267486572</v>
       </c>
       <c r="E94" t="n">
-        <v>47.35755920410156</v>
+        <v>38.6898307800293</v>
       </c>
       <c r="F94" t="n">
-        <v>18903</v>
+        <v>18568</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="B95" t="n">
-        <v>36.2851676940918</v>
+        <v>28.82461738586426</v>
       </c>
       <c r="C95" t="n">
-        <v>2.914812088012695</v>
+        <v>3.360751867294312</v>
       </c>
       <c r="D95" t="n">
-        <v>19.85422515869141</v>
+        <v>11.23262977600098</v>
       </c>
       <c r="E95" t="n">
-        <v>45.14833831787109</v>
+        <v>39.287841796875</v>
       </c>
       <c r="F95" t="n">
-        <v>18785</v>
+        <v>18438</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="B96" t="n">
-        <v>36.4007682800293</v>
+        <v>28.71969985961914</v>
       </c>
       <c r="C96" t="n">
-        <v>2.990765810012817</v>
+        <v>3.431125402450562</v>
       </c>
       <c r="D96" t="n">
-        <v>19.26646614074707</v>
+        <v>10.55944156646729</v>
       </c>
       <c r="E96" t="n">
-        <v>47.16790390014648</v>
+        <v>39.51337432861328</v>
       </c>
       <c r="F96" t="n">
-        <v>18618</v>
+        <v>18366</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="B97" t="n">
-        <v>35.31758880615234</v>
+        <v>28.67596054077148</v>
       </c>
       <c r="C97" t="n">
-        <v>2.245425224304199</v>
+        <v>3.5433030128479</v>
       </c>
       <c r="D97" t="n">
-        <v>29.28398895263672</v>
+        <v>10.44325637817383</v>
       </c>
       <c r="E97" t="n">
-        <v>41.98059463500977</v>
+        <v>38.67103576660156</v>
       </c>
       <c r="F97" t="n">
-        <v>6552</v>
+        <v>18392</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B98" t="n">
-        <v>37.080322265625</v>
+        <v>29.98631286621094</v>
       </c>
       <c r="C98" t="n">
-        <v>2.216762781143188</v>
+        <v>2.145551443099976</v>
       </c>
       <c r="D98" t="n">
-        <v>29.57957649230957</v>
+        <v>23.83526229858398</v>
       </c>
       <c r="E98" t="n">
-        <v>44.97064590454102</v>
+        <v>36.26703643798828</v>
       </c>
       <c r="F98" t="n">
-        <v>6240</v>
+        <v>6552</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B99" t="n">
-        <v>38.54508590698242</v>
+        <v>31.70875930786133</v>
       </c>
       <c r="C99" t="n">
-        <v>2.363422870635986</v>
+        <v>2.006237030029297</v>
       </c>
       <c r="D99" t="n">
-        <v>30.77559661865234</v>
+        <v>24.49136543273926</v>
       </c>
       <c r="E99" t="n">
-        <v>45.88303756713867</v>
+        <v>38.44037628173828</v>
       </c>
       <c r="F99" t="n">
-        <v>6468</v>
+        <v>6240</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B100" t="n">
-        <v>39.58275985717773</v>
+        <v>33.11044692993164</v>
       </c>
       <c r="C100" t="n">
-        <v>2.574358224868774</v>
+        <v>2.100374221801758</v>
       </c>
       <c r="D100" t="n">
-        <v>30.74654960632324</v>
+        <v>24.81258201599121</v>
       </c>
       <c r="E100" t="n">
-        <v>47.19182586669922</v>
+        <v>40.62567520141602</v>
       </c>
       <c r="F100" t="n">
-        <v>6256</v>
+        <v>6468</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B101" t="n">
-        <v>40.19496536254883</v>
+        <v>34.15375900268555</v>
       </c>
       <c r="C101" t="n">
-        <v>2.778803110122681</v>
+        <v>2.27385401725769</v>
       </c>
       <c r="D101" t="n">
-        <v>30.39970397949219</v>
+        <v>24.00954055786133</v>
       </c>
       <c r="E101" t="n">
-        <v>47.89576721191406</v>
+        <v>41.07845306396484</v>
       </c>
       <c r="F101" t="n">
-        <v>6434</v>
+        <v>6256</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B102" t="n">
-        <v>40.57649612426758</v>
+        <v>34.79726791381836</v>
       </c>
       <c r="C102" t="n">
-        <v>2.963375329971313</v>
+        <v>2.421594381332397</v>
       </c>
       <c r="D102" t="n">
-        <v>29.91787910461426</v>
+        <v>23.44228553771973</v>
       </c>
       <c r="E102" t="n">
-        <v>48.91751098632812</v>
+        <v>42.01134872436523</v>
       </c>
       <c r="F102" t="n">
-        <v>6248</v>
+        <v>6434</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B103" t="n">
-        <v>40.7540397644043</v>
+        <v>35.18770599365234</v>
       </c>
       <c r="C103" t="n">
-        <v>3.053286552429199</v>
+        <v>2.548045873641968</v>
       </c>
       <c r="D103" t="n">
-        <v>29.75727081298828</v>
+        <v>23.24750518798828</v>
       </c>
       <c r="E103" t="n">
-        <v>50.1904182434082</v>
+        <v>43.01258850097656</v>
       </c>
       <c r="F103" t="n">
-        <v>6182</v>
+        <v>6248</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B104" t="n">
-        <v>40.93981552124023</v>
+        <v>35.40071487426758</v>
       </c>
       <c r="C104" t="n">
-        <v>3.099146366119385</v>
+        <v>2.627097368240356</v>
       </c>
       <c r="D104" t="n">
-        <v>29.42922019958496</v>
+        <v>23.41152954101562</v>
       </c>
       <c r="E104" t="n">
-        <v>51.44111251831055</v>
+        <v>43.76095581054688</v>
       </c>
       <c r="F104" t="n">
-        <v>6308</v>
+        <v>6182</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B105" t="n">
-        <v>41.05941009521484</v>
+        <v>35.57366943359375</v>
       </c>
       <c r="C105" t="n">
-        <v>3.150231122970581</v>
+        <v>2.695345640182495</v>
       </c>
       <c r="D105" t="n">
-        <v>28.49290657043457</v>
+        <v>23.5994758605957</v>
       </c>
       <c r="E105" t="n">
-        <v>51.83238220214844</v>
+        <v>43.96940612792969</v>
       </c>
       <c r="F105" t="n">
-        <v>6172</v>
+        <v>6308</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B106" t="n">
-        <v>41.17935180664062</v>
+        <v>35.69401550292969</v>
       </c>
       <c r="C106" t="n">
-        <v>3.127820730209351</v>
+        <v>2.736415863037109</v>
       </c>
       <c r="D106" t="n">
-        <v>27.95982360839844</v>
+        <v>23.69515800476074</v>
       </c>
       <c r="E106" t="n">
-        <v>53.21121978759766</v>
+        <v>44.83053970336914</v>
       </c>
       <c r="F106" t="n">
-        <v>6190</v>
+        <v>6172</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="B107" t="n">
-        <v>41.32134246826172</v>
+        <v>35.8123893737793</v>
       </c>
       <c r="C107" t="n">
-        <v>3.166103363037109</v>
+        <v>2.72094464302063</v>
       </c>
       <c r="D107" t="n">
-        <v>27.61810302734375</v>
+        <v>23.74299812316895</v>
       </c>
       <c r="E107" t="n">
-        <v>54.30643463134766</v>
+        <v>46.13932800292969</v>
       </c>
       <c r="F107" t="n">
-        <v>10252</v>
+        <v>6190</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B108" t="n">
-        <v>41.42148971557617</v>
+        <v>35.89648818969727</v>
       </c>
       <c r="C108" t="n">
-        <v>3.176171064376831</v>
+        <v>2.755301713943481</v>
       </c>
       <c r="D108" t="n">
-        <v>27.43699264526367</v>
+        <v>23.10739898681641</v>
       </c>
       <c r="E108" t="n">
-        <v>53.79727172851562</v>
+        <v>46.85352325439453</v>
       </c>
       <c r="F108" t="n">
-        <v>10030</v>
+        <v>10252</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B109" t="n">
-        <v>41.46663284301758</v>
+        <v>35.96470260620117</v>
       </c>
       <c r="C109" t="n">
-        <v>3.227826833724976</v>
+        <v>2.768163919448853</v>
       </c>
       <c r="D109" t="n">
-        <v>27.43015670776367</v>
+        <v>23.30730628967285</v>
       </c>
       <c r="E109" t="n">
-        <v>50.70470809936523</v>
+        <v>45.88987350463867</v>
       </c>
       <c r="F109" t="n">
-        <v>10152</v>
+        <v>10030</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B110" t="n">
-        <v>41.50735092163086</v>
+        <v>36.00328826904297</v>
       </c>
       <c r="C110" t="n">
-        <v>3.29317307472229</v>
+        <v>2.819300174713135</v>
       </c>
       <c r="D110" t="n">
-        <v>27.43357467651367</v>
+        <v>21.93871688842773</v>
       </c>
       <c r="E110" t="n">
-        <v>51.84263610839844</v>
+        <v>45.99922180175781</v>
       </c>
       <c r="F110" t="n">
-        <v>9903</v>
+        <v>10152</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B111" t="n">
-        <v>41.54759979248047</v>
+        <v>36.02554702758789</v>
       </c>
       <c r="C111" t="n">
-        <v>3.364682197570801</v>
+        <v>2.873331785202026</v>
       </c>
       <c r="D111" t="n">
-        <v>27.12261009216309</v>
+        <v>21.93188285827637</v>
       </c>
       <c r="E111" t="n">
-        <v>53.05915832519531</v>
+        <v>45.76343536376953</v>
       </c>
       <c r="F111" t="n">
-        <v>19832</v>
+        <v>9904</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B112" t="n">
-        <v>41.64981460571289</v>
+        <v>36.03659057617188</v>
       </c>
       <c r="C112" t="n">
-        <v>3.363491535186768</v>
+        <v>2.915386915206909</v>
       </c>
       <c r="D112" t="n">
-        <v>26.87315368652344</v>
+        <v>20.69827270507812</v>
       </c>
       <c r="E112" t="n">
-        <v>53.28469085693359</v>
+        <v>46.70658111572266</v>
       </c>
       <c r="F112" t="n">
-        <v>19205</v>
+        <v>19832</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B113" t="n">
-        <v>41.81439590454102</v>
+        <v>36.09396743774414</v>
       </c>
       <c r="C113" t="n">
-        <v>3.338677883148193</v>
+        <v>2.974485874176025</v>
       </c>
       <c r="D113" t="n">
-        <v>26.77063751220703</v>
+        <v>20.01654052734375</v>
       </c>
       <c r="E113" t="n">
-        <v>53.58369445800781</v>
+        <v>47.66168975830078</v>
       </c>
       <c r="F113" t="n">
-        <v>18903</v>
+        <v>19205</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B114" t="n">
-        <v>41.98179244995117</v>
+        <v>36.17654800415039</v>
       </c>
       <c r="C114" t="n">
-        <v>3.295709371566772</v>
+        <v>2.950138807296753</v>
       </c>
       <c r="D114" t="n">
-        <v>26.64420127868652</v>
+        <v>19.87643814086914</v>
       </c>
       <c r="E114" t="n">
-        <v>51.50604248046875</v>
+        <v>47.35755920410156</v>
       </c>
       <c r="F114" t="n">
-        <v>18785</v>
+        <v>18903</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B115" t="n">
-        <v>42.14965057373047</v>
+        <v>36.2851676940918</v>
       </c>
       <c r="C115" t="n">
-        <v>3.32306432723999</v>
+        <v>2.914812088012695</v>
       </c>
       <c r="D115" t="n">
-        <v>26.65445327758789</v>
+        <v>19.85422515869141</v>
       </c>
       <c r="E115" t="n">
-        <v>51.7127799987793</v>
+        <v>45.14833831787109</v>
       </c>
       <c r="F115" t="n">
-        <v>18618</v>
+        <v>18785</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="B116" t="n">
-        <v>36.70891571044922</v>
+        <v>36.4007682800293</v>
       </c>
       <c r="C116" t="n">
-        <v>2.376379489898682</v>
+        <v>2.990765810012817</v>
       </c>
       <c r="D116" t="n">
-        <v>31.99211883544922</v>
+        <v>19.26646614074707</v>
       </c>
       <c r="E116" t="n">
-        <v>44.51274108886719</v>
+        <v>47.16790390014648</v>
       </c>
       <c r="F116" t="n">
-        <v>6552</v>
+        <v>18618</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>60</v>
+        <v>1100</v>
       </c>
       <c r="B117" t="n">
-        <v>37.991455078125</v>
+        <v>36.45192337036133</v>
       </c>
       <c r="C117" t="n">
-        <v>2.571376323699951</v>
+        <v>3.148383855819702</v>
       </c>
       <c r="D117" t="n">
-        <v>32.778076171875</v>
+        <v>19.09218978881836</v>
       </c>
       <c r="E117" t="n">
-        <v>47.54037857055664</v>
+        <v>48.14522552490234</v>
       </c>
       <c r="F117" t="n">
-        <v>6240</v>
+        <v>18476</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>90</v>
+        <v>1200</v>
       </c>
       <c r="B118" t="n">
-        <v>39.01966857910156</v>
+        <v>36.44610214233398</v>
       </c>
       <c r="C118" t="n">
-        <v>2.865103483200073</v>
+        <v>3.229307174682617</v>
       </c>
       <c r="D118" t="n">
-        <v>33.25306701660156</v>
+        <v>18.54372787475586</v>
       </c>
       <c r="E118" t="n">
-        <v>49.28656768798828</v>
+        <v>47.85818099975586</v>
       </c>
       <c r="F118" t="n">
-        <v>6468</v>
+        <v>18568</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="B119" t="n">
-        <v>39.83557891845703</v>
+        <v>36.37449645996094</v>
       </c>
       <c r="C119" t="n">
-        <v>3.145776748657227</v>
+        <v>3.262782573699951</v>
       </c>
       <c r="D119" t="n">
-        <v>33.19155502319336</v>
+        <v>18.85298538208008</v>
       </c>
       <c r="E119" t="n">
-        <v>50.32197952270508</v>
+        <v>46.3990364074707</v>
       </c>
       <c r="F119" t="n">
-        <v>6256</v>
+        <v>18438</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>150</v>
+        <v>1400</v>
       </c>
       <c r="B120" t="n">
-        <v>40.36902236938477</v>
+        <v>36.27005004882812</v>
       </c>
       <c r="C120" t="n">
-        <v>3.361056804656982</v>
+        <v>3.278586387634277</v>
       </c>
       <c r="D120" t="n">
-        <v>32.1834831237793</v>
+        <v>18.97258758544922</v>
       </c>
       <c r="E120" t="n">
-        <v>51.14210891723633</v>
+        <v>46.96799850463867</v>
       </c>
       <c r="F120" t="n">
-        <v>6434</v>
+        <v>18366</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>180</v>
+        <v>1500</v>
       </c>
       <c r="B121" t="n">
-        <v>40.82368469238281</v>
+        <v>36.18234252929688</v>
       </c>
       <c r="C121" t="n">
-        <v>3.537451505661011</v>
+        <v>3.3784499168396</v>
       </c>
       <c r="D121" t="n">
-        <v>32.15614700317383</v>
+        <v>18.52151679992676</v>
       </c>
       <c r="E121" t="n">
-        <v>50.85848236083984</v>
+        <v>50.05373001098633</v>
       </c>
       <c r="F121" t="n">
-        <v>6248</v>
+        <v>18392</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="B122" t="n">
-        <v>41.07958221435547</v>
+        <v>35.31758880615234</v>
       </c>
       <c r="C122" t="n">
-        <v>3.681665658950806</v>
+        <v>2.245425224304199</v>
       </c>
       <c r="D122" t="n">
-        <v>32.13222503662109</v>
+        <v>29.28398895263672</v>
       </c>
       <c r="E122" t="n">
-        <v>51.06351089477539</v>
+        <v>41.98059463500977</v>
       </c>
       <c r="F122" t="n">
-        <v>6182</v>
+        <v>6552</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="B123" t="n">
-        <v>41.29595947265625</v>
+        <v>37.080322265625</v>
       </c>
       <c r="C123" t="n">
-        <v>3.773206472396851</v>
+        <v>2.216762781143188</v>
       </c>
       <c r="D123" t="n">
-        <v>32.15614700317383</v>
+        <v>29.57957649230957</v>
       </c>
       <c r="E123" t="n">
-        <v>52.42013931274414</v>
+        <v>44.97064590454102</v>
       </c>
       <c r="F123" t="n">
-        <v>6308</v>
+        <v>6240</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="B124" t="n">
-        <v>41.4620361328125</v>
+        <v>38.54508590698242</v>
       </c>
       <c r="C124" t="n">
-        <v>3.866203308105469</v>
+        <v>2.363422870635986</v>
       </c>
       <c r="D124" t="n">
-        <v>32.15956115722656</v>
+        <v>30.77559661865234</v>
       </c>
       <c r="E124" t="n">
-        <v>54.49779891967773</v>
+        <v>45.88303756713867</v>
       </c>
       <c r="F124" t="n">
-        <v>6172</v>
+        <v>6468</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="B125" t="n">
-        <v>41.55801773071289</v>
+        <v>39.58275985717773</v>
       </c>
       <c r="C125" t="n">
-        <v>3.895956516265869</v>
+        <v>2.574358224868774</v>
       </c>
       <c r="D125" t="n">
-        <v>32.08096694946289</v>
+        <v>30.74654960632324</v>
       </c>
       <c r="E125" t="n">
-        <v>55.6220588684082</v>
+        <v>47.19182586669922</v>
       </c>
       <c r="F125" t="n">
-        <v>6190</v>
+        <v>6256</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="B126" t="n">
-        <v>41.74532699584961</v>
+        <v>40.19496536254883</v>
       </c>
       <c r="C126" t="n">
-        <v>3.909242391586304</v>
+        <v>2.778803110122681</v>
       </c>
       <c r="D126" t="n">
-        <v>32.05704498291016</v>
+        <v>30.39970397949219</v>
       </c>
       <c r="E126" t="n">
-        <v>55.96377944946289</v>
+        <v>47.89576721191406</v>
       </c>
       <c r="F126" t="n">
-        <v>10252</v>
+        <v>6434</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="B127" t="n">
-        <v>41.86675643920898</v>
+        <v>40.57649612426758</v>
       </c>
       <c r="C127" t="n">
-        <v>3.911385059356689</v>
+        <v>2.963375329971313</v>
       </c>
       <c r="D127" t="n">
-        <v>32.12538909912109</v>
+        <v>29.91787910461426</v>
       </c>
       <c r="E127" t="n">
-        <v>55.64939498901367</v>
+        <v>48.91751098632812</v>
       </c>
       <c r="F127" t="n">
-        <v>10030</v>
+        <v>6248</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="B128" t="n">
-        <v>41.95062255859375</v>
+        <v>40.7540397644043</v>
       </c>
       <c r="C128" t="n">
-        <v>3.921699285507202</v>
+        <v>3.053286552429199</v>
       </c>
       <c r="D128" t="n">
-        <v>32.25865936279297</v>
+        <v>29.75727081298828</v>
       </c>
       <c r="E128" t="n">
-        <v>55.89201736450195</v>
+        <v>50.1904182434082</v>
       </c>
       <c r="F128" t="n">
-        <v>10152</v>
+        <v>6182</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="B129" t="n">
-        <v>42.04123306274414</v>
+        <v>40.93981552124023</v>
       </c>
       <c r="C129" t="n">
-        <v>3.970262765884399</v>
+        <v>3.099146366119385</v>
       </c>
       <c r="D129" t="n">
-        <v>31.58547210693359</v>
+        <v>29.42922019958496</v>
       </c>
       <c r="E129" t="n">
-        <v>54.98987579345703</v>
+        <v>51.44111251831055</v>
       </c>
       <c r="F129" t="n">
-        <v>9904</v>
+        <v>6308</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="B130" t="n">
-        <v>42.16095733642578</v>
+        <v>41.05941009521484</v>
       </c>
       <c r="C130" t="n">
-        <v>3.981720209121704</v>
+        <v>3.150231122970581</v>
       </c>
       <c r="D130" t="n">
-        <v>30.72775650024414</v>
+        <v>28.49290657043457</v>
       </c>
       <c r="E130" t="n">
-        <v>56.46610641479492</v>
+        <v>51.83238220214844</v>
       </c>
       <c r="F130" t="n">
-        <v>19832</v>
+        <v>6172</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="B131" t="n">
-        <v>42.35874176025391</v>
+        <v>41.17935180664062</v>
       </c>
       <c r="C131" t="n">
-        <v>3.967750787734985</v>
+        <v>3.127820730209351</v>
       </c>
       <c r="D131" t="n">
-        <v>30.17758560180664</v>
+        <v>27.95982360839844</v>
       </c>
       <c r="E131" t="n">
-        <v>56.77023696899414</v>
+        <v>53.21121978759766</v>
       </c>
       <c r="F131" t="n">
-        <v>19205</v>
+        <v>6190</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="B132" t="n">
-        <v>42.53704452514648</v>
+        <v>41.32134246826172</v>
       </c>
       <c r="C132" t="n">
-        <v>3.923729419708252</v>
+        <v>3.166103363037109</v>
       </c>
       <c r="D132" t="n">
-        <v>30.05798530578613</v>
+        <v>27.61810302734375</v>
       </c>
       <c r="E132" t="n">
-        <v>56.44218444824219</v>
+        <v>54.30643463134766</v>
       </c>
       <c r="F132" t="n">
-        <v>18903</v>
+        <v>10252</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="B133" t="n">
-        <v>42.69979858398438</v>
+        <v>41.42148971557617</v>
       </c>
       <c r="C133" t="n">
-        <v>3.922377586364746</v>
+        <v>3.176171064376831</v>
       </c>
       <c r="D133" t="n">
-        <v>29.99305725097656</v>
+        <v>27.43699264526367</v>
       </c>
       <c r="E133" t="n">
-        <v>54.69599533081055</v>
+        <v>53.79727172851562</v>
       </c>
       <c r="F133" t="n">
-        <v>18785</v>
+        <v>10030</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="B134" t="n">
-        <v>42.91030120849609</v>
+        <v>41.46663284301758</v>
       </c>
       <c r="C134" t="n">
-        <v>3.998095035552979</v>
+        <v>3.227826833724976</v>
       </c>
       <c r="D134" t="n">
-        <v>29.87687301635742</v>
+        <v>27.43015670776367</v>
       </c>
       <c r="E134" t="n">
-        <v>57.15979766845703</v>
+        <v>50.70470809936523</v>
       </c>
       <c r="F134" t="n">
-        <v>18618</v>
+        <v>10152</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="B135" t="n">
-        <v>33.98130416870117</v>
+        <v>41.50735092163086</v>
       </c>
       <c r="C135" t="n">
-        <v>1.800754308700562</v>
+        <v>3.29317307472229</v>
       </c>
       <c r="D135" t="n">
-        <v>29.73335075378418</v>
+        <v>27.43357467651367</v>
       </c>
       <c r="E135" t="n">
-        <v>40.06012725830078</v>
+        <v>51.84263610839844</v>
       </c>
       <c r="F135" t="n">
-        <v>6552</v>
+        <v>9903</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="B136" t="n">
-        <v>35.06086730957031</v>
+        <v>41.54759979248047</v>
       </c>
       <c r="C136" t="n">
-        <v>1.931013703346252</v>
+        <v>3.364682197570801</v>
       </c>
       <c r="D136" t="n">
-        <v>30.12632751464844</v>
+        <v>27.12261009216309</v>
       </c>
       <c r="E136" t="n">
-        <v>42.27276611328125</v>
+        <v>53.05915832519531</v>
       </c>
       <c r="F136" t="n">
-        <v>6240</v>
+        <v>19832</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>90</v>
+        <v>700</v>
       </c>
       <c r="B137" t="n">
-        <v>35.83792114257812</v>
+        <v>41.64981460571289</v>
       </c>
       <c r="C137" t="n">
-        <v>2.173262119293213</v>
+        <v>3.363491535186768</v>
       </c>
       <c r="D137" t="n">
-        <v>30.70041847229004</v>
+        <v>26.87315368652344</v>
       </c>
       <c r="E137" t="n">
-        <v>44.09242630004883</v>
+        <v>53.28469085693359</v>
       </c>
       <c r="F137" t="n">
-        <v>6468</v>
+        <v>19205</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="B138" t="n">
-        <v>36.46575164794922</v>
+        <v>41.81439590454102</v>
       </c>
       <c r="C138" t="n">
-        <v>2.426944732666016</v>
+        <v>3.338677883148193</v>
       </c>
       <c r="D138" t="n">
-        <v>31.26083946228027</v>
+        <v>26.77063751220703</v>
       </c>
       <c r="E138" t="n">
-        <v>44.52640914916992</v>
+        <v>53.58369445800781</v>
       </c>
       <c r="F138" t="n">
-        <v>6256</v>
+        <v>18903</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="B139" t="n">
-        <v>36.89977645874023</v>
+        <v>41.98179244995117</v>
       </c>
       <c r="C139" t="n">
-        <v>2.638114929199219</v>
+        <v>3.295709371566772</v>
       </c>
       <c r="D139" t="n">
-        <v>30.51759719848633</v>
+        <v>26.64420127868652</v>
       </c>
       <c r="E139" t="n">
-        <v>45.87961959838867</v>
+        <v>51.50604248046875</v>
       </c>
       <c r="F139" t="n">
-        <v>6434</v>
+        <v>18785</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="B140" t="n">
-        <v>37.24451446533203</v>
+        <v>42.14965057373047</v>
       </c>
       <c r="C140" t="n">
-        <v>2.81533670425415</v>
+        <v>3.32306432723999</v>
       </c>
       <c r="D140" t="n">
-        <v>30.35015487670898</v>
+        <v>26.65445327758789</v>
       </c>
       <c r="E140" t="n">
-        <v>48.5177001953125</v>
+        <v>51.7127799987793</v>
       </c>
       <c r="F140" t="n">
-        <v>6248</v>
+        <v>18618</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>210</v>
+        <v>1100</v>
       </c>
       <c r="B141" t="n">
-        <v>37.46402359008789</v>
+        <v>42.23291778564453</v>
       </c>
       <c r="C141" t="n">
-        <v>2.969890594482422</v>
+        <v>3.433120489120483</v>
       </c>
       <c r="D141" t="n">
-        <v>30.17075157165527</v>
+        <v>26.42891883850098</v>
       </c>
       <c r="E141" t="n">
-        <v>50.88581848144531</v>
+        <v>52.21511077880859</v>
       </c>
       <c r="F141" t="n">
-        <v>6182</v>
+        <v>18476</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="B142" t="n">
-        <v>37.63840866088867</v>
+        <v>42.18862915039062</v>
       </c>
       <c r="C142" t="n">
-        <v>3.080007076263428</v>
+        <v>3.544787168502808</v>
       </c>
       <c r="D142" t="n">
-        <v>30.42362403869629</v>
+        <v>26.11795234680176</v>
       </c>
       <c r="E142" t="n">
-        <v>51.67177581787109</v>
+        <v>52.32616806030273</v>
       </c>
       <c r="F142" t="n">
-        <v>6308</v>
+        <v>18568</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>270</v>
+        <v>1300</v>
       </c>
       <c r="B143" t="n">
-        <v>37.80146408081055</v>
+        <v>42.10209274291992</v>
       </c>
       <c r="C143" t="n">
-        <v>3.180341005325317</v>
+        <v>3.621676445007324</v>
       </c>
       <c r="D143" t="n">
-        <v>30.86102676391602</v>
+        <v>25.38154602050781</v>
       </c>
       <c r="E143" t="n">
-        <v>51.65127182006836</v>
+        <v>52.63200759887695</v>
       </c>
       <c r="F143" t="n">
-        <v>6172</v>
+        <v>18438</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="B144" t="n">
-        <v>37.88390731811523</v>
+        <v>41.99977111816406</v>
       </c>
       <c r="C144" t="n">
-        <v>3.202800750732422</v>
+        <v>3.662901878356934</v>
       </c>
       <c r="D144" t="n">
-        <v>30.78584861755371</v>
+        <v>25.37300300598145</v>
       </c>
       <c r="E144" t="n">
-        <v>51.73670196533203</v>
+        <v>53.89978790283203</v>
       </c>
       <c r="F144" t="n">
-        <v>6190</v>
+        <v>18366</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="B145" t="n">
-        <v>38.00069046020508</v>
+        <v>41.92996978759766</v>
       </c>
       <c r="C145" t="n">
-        <v>3.196544170379639</v>
+        <v>3.78806734085083</v>
       </c>
       <c r="D145" t="n">
-        <v>30.61498832702637</v>
+        <v>25.78819274902344</v>
       </c>
       <c r="E145" t="n">
-        <v>51.7093620300293</v>
+        <v>56.7018928527832</v>
       </c>
       <c r="F145" t="n">
-        <v>10252</v>
+        <v>18392</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="B146" t="n">
-        <v>38.09521484375</v>
+        <v>36.70891571044922</v>
       </c>
       <c r="C146" t="n">
-        <v>3.18194055557251</v>
+        <v>2.376379489898682</v>
       </c>
       <c r="D146" t="n">
-        <v>30.56373023986816</v>
+        <v>31.99211883544922</v>
       </c>
       <c r="E146" t="n">
-        <v>51.90756225585938</v>
+        <v>44.51274108886719</v>
       </c>
       <c r="F146" t="n">
-        <v>10030</v>
+        <v>6552</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="B147" t="n">
-        <v>38.15691375732422</v>
+        <v>37.991455078125</v>
       </c>
       <c r="C147" t="n">
-        <v>3.188350439071655</v>
+        <v>2.571376323699951</v>
       </c>
       <c r="D147" t="n">
-        <v>29.91787910461426</v>
+        <v>32.778076171875</v>
       </c>
       <c r="E147" t="n">
-        <v>52.67642974853516</v>
+        <v>47.54037857055664</v>
       </c>
       <c r="F147" t="n">
-        <v>10152</v>
+        <v>6240</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="B148" t="n">
-        <v>38.20635604858398</v>
+        <v>39.01966857910156</v>
       </c>
       <c r="C148" t="n">
-        <v>3.25927734375</v>
+        <v>2.865103483200073</v>
       </c>
       <c r="D148" t="n">
-        <v>29.87003898620605</v>
+        <v>33.25306701660156</v>
       </c>
       <c r="E148" t="n">
-        <v>52.8626708984375</v>
+        <v>49.28656768798828</v>
       </c>
       <c r="F148" t="n">
-        <v>9904</v>
+        <v>6468</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="B149" t="n">
-        <v>38.30426025390625</v>
+        <v>39.83557891845703</v>
       </c>
       <c r="C149" t="n">
-        <v>3.258676528930664</v>
+        <v>3.145776748657227</v>
       </c>
       <c r="D149" t="n">
-        <v>30.47488212585449</v>
+        <v>33.19155502319336</v>
       </c>
       <c r="E149" t="n">
-        <v>54.07235717773438</v>
+        <v>50.32197952270508</v>
       </c>
       <c r="F149" t="n">
-        <v>19832</v>
+        <v>6256</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="B150" t="n">
-        <v>38.44408416748047</v>
+        <v>40.36902236938477</v>
       </c>
       <c r="C150" t="n">
-        <v>3.240170001983643</v>
+        <v>3.361056804656982</v>
       </c>
       <c r="D150" t="n">
-        <v>30.29035377502441</v>
+        <v>32.1834831237793</v>
       </c>
       <c r="E150" t="n">
-        <v>53.96471405029297</v>
+        <v>51.14210891723633</v>
       </c>
       <c r="F150" t="n">
-        <v>19205</v>
+        <v>6434</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="B151" t="n">
-        <v>38.56724548339844</v>
+        <v>40.82368469238281</v>
       </c>
       <c r="C151" t="n">
-        <v>3.181430816650391</v>
+        <v>3.537451505661011</v>
       </c>
       <c r="D151" t="n">
-        <v>29.92129516601562</v>
+        <v>32.15614700317383</v>
       </c>
       <c r="E151" t="n">
-        <v>53.18901062011719</v>
+        <v>50.85848236083984</v>
       </c>
       <c r="F151" t="n">
-        <v>18903</v>
+        <v>6248</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="B152" t="n">
-        <v>38.68341827392578</v>
+        <v>41.07958221435547</v>
       </c>
       <c r="C152" t="n">
-        <v>3.154847621917725</v>
+        <v>3.681665658950806</v>
       </c>
       <c r="D152" t="n">
-        <v>30.10753440856934</v>
+        <v>32.13222503662109</v>
       </c>
       <c r="E152" t="n">
-        <v>50.90974044799805</v>
+        <v>51.06351089477539</v>
       </c>
       <c r="F152" t="n">
-        <v>18785</v>
+        <v>6182</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="B153" t="n">
-        <v>38.85372924804688</v>
+        <v>41.29595947265625</v>
       </c>
       <c r="C153" t="n">
-        <v>3.283052206039429</v>
+        <v>3.773206472396851</v>
       </c>
       <c r="D153" t="n">
-        <v>30.02039527893066</v>
+        <v>32.15614700317383</v>
       </c>
       <c r="E153" t="n">
-        <v>50.95587158203125</v>
+        <v>52.42013931274414</v>
       </c>
       <c r="F153" t="n">
-        <v>18618</v>
+        <v>6308</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="B154" t="n">
-        <v>29.70588111877441</v>
+        <v>41.4620361328125</v>
       </c>
       <c r="C154" t="n">
-        <v>1.849128484725952</v>
+        <v>3.866203308105469</v>
       </c>
       <c r="D154" t="n">
-        <v>25.48235321044922</v>
+        <v>32.15956115722656</v>
       </c>
       <c r="E154" t="n">
-        <v>35.72028350830078</v>
+        <v>54.49779891967773</v>
       </c>
       <c r="F154" t="n">
-        <v>6552</v>
+        <v>6172</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="B155" t="n">
-        <v>30.70848274230957</v>
+        <v>41.55801773071289</v>
       </c>
       <c r="C155" t="n">
-        <v>1.945659756660461</v>
+        <v>3.895956516265869</v>
       </c>
       <c r="D155" t="n">
-        <v>26.15724945068359</v>
+        <v>32.08096694946289</v>
       </c>
       <c r="E155" t="n">
-        <v>37.61682891845703</v>
+        <v>55.6220588684082</v>
       </c>
       <c r="F155" t="n">
-        <v>6240</v>
+        <v>6190</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="B156" t="n">
-        <v>31.42490005493164</v>
+        <v>41.74532699584961</v>
       </c>
       <c r="C156" t="n">
-        <v>2.116784811019897</v>
+        <v>3.909242391586304</v>
       </c>
       <c r="D156" t="n">
-        <v>26.46650695800781</v>
+        <v>32.05704498291016</v>
       </c>
       <c r="E156" t="n">
-        <v>39.63298034667969</v>
+        <v>55.96377944946289</v>
       </c>
       <c r="F156" t="n">
-        <v>6468</v>
+        <v>10252</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="B157" t="n">
-        <v>32.02864074707031</v>
+        <v>41.86675643920898</v>
       </c>
       <c r="C157" t="n">
-        <v>2.28879189491272</v>
+        <v>3.911385059356689</v>
       </c>
       <c r="D157" t="n">
-        <v>26.2187614440918</v>
+        <v>32.12538909912109</v>
       </c>
       <c r="E157" t="n">
-        <v>40.9622688293457</v>
+        <v>55.64939498901367</v>
       </c>
       <c r="F157" t="n">
-        <v>6256</v>
+        <v>10030</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="B158" t="n">
-        <v>32.42072296142578</v>
+        <v>41.95062255859375</v>
       </c>
       <c r="C158" t="n">
-        <v>2.433947801589966</v>
+        <v>3.921699285507202</v>
       </c>
       <c r="D158" t="n">
-        <v>25.57803535461426</v>
+        <v>32.25865936279297</v>
       </c>
       <c r="E158" t="n">
-        <v>41.18609619140625</v>
+        <v>55.89201736450195</v>
       </c>
       <c r="F158" t="n">
-        <v>6434</v>
+        <v>10152</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="B159" t="n">
-        <v>32.75988388061523</v>
+        <v>42.04123306274414</v>
       </c>
       <c r="C159" t="n">
-        <v>2.55942177772522</v>
+        <v>3.970262765884399</v>
       </c>
       <c r="D159" t="n">
-        <v>25.31832885742188</v>
+        <v>31.58547210693359</v>
       </c>
       <c r="E159" t="n">
-        <v>41.78923034667969</v>
+        <v>54.98987579345703</v>
       </c>
       <c r="F159" t="n">
-        <v>6248</v>
+        <v>9904</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="B160" t="n">
-        <v>32.95531845092773</v>
+        <v>42.16095733642578</v>
       </c>
       <c r="C160" t="n">
-        <v>2.649091005325317</v>
+        <v>3.981720209121704</v>
       </c>
       <c r="D160" t="n">
-        <v>25.29440689086914</v>
+        <v>30.72775650024414</v>
       </c>
       <c r="E160" t="n">
-        <v>42.42483139038086</v>
+        <v>56.46610641479492</v>
       </c>
       <c r="F160" t="n">
-        <v>6182</v>
+        <v>19832</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="B161" t="n">
-        <v>33.13430404663086</v>
+        <v>42.35874176025391</v>
       </c>
       <c r="C161" t="n">
-        <v>2.718275785446167</v>
+        <v>3.967750787734985</v>
       </c>
       <c r="D161" t="n">
-        <v>25.44134712219238</v>
+        <v>30.17758560180664</v>
       </c>
       <c r="E161" t="n">
-        <v>43.37823104858398</v>
+        <v>56.77023696899414</v>
       </c>
       <c r="F161" t="n">
-        <v>6308</v>
+        <v>19205</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="B162" t="n">
-        <v>33.27592086791992</v>
+        <v>42.53704452514648</v>
       </c>
       <c r="C162" t="n">
-        <v>2.781714677810669</v>
+        <v>3.923729419708252</v>
       </c>
       <c r="D162" t="n">
-        <v>25.61562347412109</v>
+        <v>30.05798530578613</v>
       </c>
       <c r="E162" t="n">
-        <v>44.53324508666992</v>
+        <v>56.44218444824219</v>
       </c>
       <c r="F162" t="n">
-        <v>6172</v>
+        <v>18903</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="B163" t="n">
-        <v>33.36357116699219</v>
+        <v>42.69979858398438</v>
       </c>
       <c r="C163" t="n">
-        <v>2.792540311813354</v>
+        <v>3.922377586364746</v>
       </c>
       <c r="D163" t="n">
-        <v>25.35250091552734</v>
+        <v>29.99305725097656</v>
       </c>
       <c r="E163" t="n">
-        <v>45.54815292358398</v>
+        <v>54.69599533081055</v>
       </c>
       <c r="F163" t="n">
-        <v>6190</v>
+        <v>18785</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="B164" t="n">
-        <v>33.45548248291016</v>
+        <v>42.91030120849609</v>
       </c>
       <c r="C164" t="n">
-        <v>2.780905246734619</v>
+        <v>3.998095035552979</v>
       </c>
       <c r="D164" t="n">
-        <v>25.11329650878906</v>
+        <v>29.87687301635742</v>
       </c>
       <c r="E164" t="n">
-        <v>45.63016510009766</v>
+        <v>57.15979766845703</v>
       </c>
       <c r="F164" t="n">
-        <v>10252</v>
+        <v>18618</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="B165" t="n">
-        <v>33.51891326904297</v>
+        <v>43.0975227355957</v>
       </c>
       <c r="C165" t="n">
-        <v>2.78061842918396</v>
+        <v>4.08340311050415</v>
       </c>
       <c r="D165" t="n">
-        <v>25.21581268310547</v>
+        <v>29.94179916381836</v>
       </c>
       <c r="E165" t="n">
-        <v>45.55157089233398</v>
+        <v>57.77489471435547</v>
       </c>
       <c r="F165" t="n">
-        <v>10030</v>
+        <v>18476</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="B166" t="n">
-        <v>33.57656860351562</v>
+        <v>43.16032791137695</v>
       </c>
       <c r="C166" t="n">
-        <v>2.818719148635864</v>
+        <v>4.144697666168213</v>
       </c>
       <c r="D166" t="n">
-        <v>25.2021427154541</v>
+        <v>29.83244895935059</v>
       </c>
       <c r="E166" t="n">
-        <v>45.98897171020508</v>
+        <v>57.38874816894531</v>
       </c>
       <c r="F166" t="n">
-        <v>10152</v>
+        <v>18568</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="B167" t="n">
-        <v>33.61270523071289</v>
+        <v>43.09749603271484</v>
       </c>
       <c r="C167" t="n">
-        <v>2.885268211364746</v>
+        <v>4.174896240234375</v>
       </c>
       <c r="D167" t="n">
-        <v>25.1269645690918</v>
+        <v>29.86320304870605</v>
       </c>
       <c r="E167" t="n">
-        <v>45.44221878051758</v>
+        <v>57.64503860473633</v>
       </c>
       <c r="F167" t="n">
-        <v>9904</v>
+        <v>18438</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="B168" t="n">
-        <v>33.6640510559082</v>
+        <v>42.9649543762207</v>
       </c>
       <c r="C168" t="n">
-        <v>2.889640092849731</v>
+        <v>4.170501232147217</v>
       </c>
       <c r="D168" t="n">
-        <v>24.87067413330078</v>
+        <v>29.96230316162109</v>
       </c>
       <c r="E168" t="n">
-        <v>44.04458618164062</v>
+        <v>56.96160125732422</v>
       </c>
       <c r="F168" t="n">
-        <v>19831</v>
+        <v>18366</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="B169" t="n">
-        <v>33.78075408935547</v>
+        <v>42.86069488525391</v>
       </c>
       <c r="C169" t="n">
-        <v>2.881958484649658</v>
+        <v>4.255523204803467</v>
       </c>
       <c r="D169" t="n">
-        <v>24.62805366516113</v>
+        <v>29.83586692810059</v>
       </c>
       <c r="E169" t="n">
-        <v>46.02997589111328</v>
+        <v>60.26945114135742</v>
       </c>
       <c r="F169" t="n">
-        <v>19205</v>
+        <v>18392</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="B170" t="n">
-        <v>33.90799713134766</v>
+        <v>33.98130416870117</v>
       </c>
       <c r="C170" t="n">
-        <v>2.876323223114014</v>
+        <v>1.800754308700562</v>
       </c>
       <c r="D170" t="n">
-        <v>24.64513969421387</v>
+        <v>29.73335075378418</v>
       </c>
       <c r="E170" t="n">
-        <v>46.04364776611328</v>
+        <v>40.06012725830078</v>
       </c>
       <c r="F170" t="n">
-        <v>18903</v>
+        <v>6552</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="B171" t="n">
-        <v>34.04323959350586</v>
+        <v>35.06086730957031</v>
       </c>
       <c r="C171" t="n">
-        <v>2.887424230575562</v>
+        <v>1.931013703346252</v>
       </c>
       <c r="D171" t="n">
-        <v>24.54945755004883</v>
+        <v>30.12632751464844</v>
       </c>
       <c r="E171" t="n">
-        <v>44.36408996582031</v>
+        <v>42.27276611328125</v>
       </c>
       <c r="F171" t="n">
-        <v>18785</v>
+        <v>6240</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="B172" t="n">
-        <v>34.15513610839844</v>
+        <v>35.83792114257812</v>
       </c>
       <c r="C172" t="n">
-        <v>2.946753263473511</v>
+        <v>2.173262119293213</v>
       </c>
       <c r="D172" t="n">
-        <v>24.51870346069336</v>
+        <v>30.70041847229004</v>
       </c>
       <c r="E172" t="n">
-        <v>46.32043838500977</v>
+        <v>44.09242630004883</v>
       </c>
       <c r="F172" t="n">
-        <v>18618</v>
+        <v>6468</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B173" t="n">
-        <v>20.72970390319824</v>
+        <v>36.46575164794922</v>
       </c>
       <c r="C173" t="n">
-        <v>1.071834921836853</v>
+        <v>2.426944732666016</v>
       </c>
       <c r="D173" t="n">
-        <v>17.70822334289551</v>
+        <v>31.26083946228027</v>
       </c>
       <c r="E173" t="n">
-        <v>23.82159423828125</v>
+        <v>44.52640914916992</v>
       </c>
       <c r="F173" t="n">
-        <v>6552</v>
+        <v>6256</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B174" t="n">
-        <v>21.58211708068848</v>
+        <v>36.89977645874023</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9890961647033691</v>
+        <v>2.638114929199219</v>
       </c>
       <c r="D174" t="n">
-        <v>17.76631546020508</v>
+        <v>30.51759719848633</v>
       </c>
       <c r="E174" t="n">
-        <v>25.29099082946777</v>
+        <v>45.87961959838867</v>
       </c>
       <c r="F174" t="n">
-        <v>6240</v>
+        <v>6434</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B175" t="n">
-        <v>22.0821418762207</v>
+        <v>37.24451446533203</v>
       </c>
       <c r="C175" t="n">
-        <v>1.086673140525818</v>
+        <v>2.81533670425415</v>
       </c>
       <c r="D175" t="n">
-        <v>18.53860282897949</v>
+        <v>30.35015487670898</v>
       </c>
       <c r="E175" t="n">
-        <v>26.22217750549316</v>
+        <v>48.5177001953125</v>
       </c>
       <c r="F175" t="n">
-        <v>6468</v>
+        <v>6248</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n">
-        <v>22.48092269897461</v>
+        <v>37.46402359008789</v>
       </c>
       <c r="C176" t="n">
-        <v>1.19483745098114</v>
+        <v>2.969890594482422</v>
       </c>
       <c r="D176" t="n">
-        <v>18.37457656860352</v>
+        <v>30.17075157165527</v>
       </c>
       <c r="E176" t="n">
-        <v>27.18070220947266</v>
+        <v>50.88581848144531</v>
       </c>
       <c r="F176" t="n">
-        <v>6256</v>
+        <v>6182</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="B177" t="n">
-        <v>22.74111747741699</v>
+        <v>37.63840866088867</v>
       </c>
       <c r="C177" t="n">
-        <v>1.304683566093445</v>
+        <v>3.080007076263428</v>
       </c>
       <c r="D177" t="n">
-        <v>17.5578670501709</v>
+        <v>30.42362403869629</v>
       </c>
       <c r="E177" t="n">
-        <v>27.8675594329834</v>
+        <v>51.67177581787109</v>
       </c>
       <c r="F177" t="n">
-        <v>6434</v>
+        <v>6308</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="B178" t="n">
-        <v>22.91699600219727</v>
+        <v>37.80146408081055</v>
       </c>
       <c r="C178" t="n">
-        <v>1.395852565765381</v>
+        <v>3.180341005325317</v>
       </c>
       <c r="D178" t="n">
-        <v>17.30157661437988</v>
+        <v>30.86102676391602</v>
       </c>
       <c r="E178" t="n">
-        <v>28.16827201843262</v>
+        <v>51.65127182006836</v>
       </c>
       <c r="F178" t="n">
-        <v>6248</v>
+        <v>6172</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="B179" t="n">
-        <v>23.04143905639648</v>
+        <v>37.88390731811523</v>
       </c>
       <c r="C179" t="n">
-        <v>1.466987371444702</v>
+        <v>3.202800750732422</v>
       </c>
       <c r="D179" t="n">
-        <v>17.17172241210938</v>
+        <v>30.78584861755371</v>
       </c>
       <c r="E179" t="n">
-        <v>29.18659782409668</v>
+        <v>51.73670196533203</v>
       </c>
       <c r="F179" t="n">
-        <v>6182</v>
+        <v>6190</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="B180" t="n">
-        <v>23.14889144897461</v>
+        <v>38.00069046020508</v>
       </c>
       <c r="C180" t="n">
-        <v>1.524304628372192</v>
+        <v>3.196544170379639</v>
       </c>
       <c r="D180" t="n">
-        <v>17.17684936523438</v>
+        <v>30.61498832702637</v>
       </c>
       <c r="E180" t="n">
-        <v>29.72309875488281</v>
+        <v>51.7093620300293</v>
       </c>
       <c r="F180" t="n">
-        <v>6308</v>
+        <v>10252</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="B181" t="n">
-        <v>23.22562408447266</v>
+        <v>38.09521484375</v>
       </c>
       <c r="C181" t="n">
-        <v>1.564305424690247</v>
+        <v>3.18194055557251</v>
       </c>
       <c r="D181" t="n">
-        <v>17.68088531494141</v>
+        <v>30.56373023986816</v>
       </c>
       <c r="E181" t="n">
-        <v>30.76534461975098</v>
+        <v>51.90756225585938</v>
       </c>
       <c r="F181" t="n">
-        <v>6172</v>
+        <v>10030</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="B182" t="n">
-        <v>23.27596092224121</v>
+        <v>38.15691375732422</v>
       </c>
       <c r="C182" t="n">
-        <v>1.561545372009277</v>
+        <v>3.188350439071655</v>
       </c>
       <c r="D182" t="n">
-        <v>17.78852844238281</v>
+        <v>29.91787910461426</v>
       </c>
       <c r="E182" t="n">
-        <v>31.99553680419922</v>
+        <v>52.67642974853516</v>
       </c>
       <c r="F182" t="n">
-        <v>6190</v>
+        <v>10152</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="B183" t="n">
-        <v>23.31174659729004</v>
+        <v>38.20635604858398</v>
       </c>
       <c r="C183" t="n">
-        <v>1.555414438247681</v>
+        <v>3.25927734375</v>
       </c>
       <c r="D183" t="n">
-        <v>18.0755729675293</v>
+        <v>29.87003898620605</v>
       </c>
       <c r="E183" t="n">
-        <v>32.26891326904297</v>
+        <v>52.8626708984375</v>
       </c>
       <c r="F183" t="n">
-        <v>10252</v>
+        <v>9904</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="B184" t="n">
-        <v>23.34564781188965</v>
+        <v>38.30426025390625</v>
       </c>
       <c r="C184" t="n">
-        <v>1.527719020843506</v>
+        <v>3.258676528930664</v>
       </c>
       <c r="D184" t="n">
-        <v>18.15587615966797</v>
+        <v>30.47488212585449</v>
       </c>
       <c r="E184" t="n">
-        <v>31.56497001647949</v>
+        <v>54.07235717773438</v>
       </c>
       <c r="F184" t="n">
-        <v>10030</v>
+        <v>19832</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="B185" t="n">
-        <v>23.36967849731445</v>
+        <v>38.44408416748047</v>
       </c>
       <c r="C185" t="n">
-        <v>1.536937832832336</v>
+        <v>3.240170001983643</v>
       </c>
       <c r="D185" t="n">
-        <v>16.23199272155762</v>
+        <v>30.29035377502441</v>
       </c>
       <c r="E185" t="n">
-        <v>31.48979187011719</v>
+        <v>53.96471405029297</v>
       </c>
       <c r="F185" t="n">
-        <v>10152</v>
+        <v>19205</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="B186" t="n">
-        <v>23.37282371520996</v>
+        <v>38.56724548339844</v>
       </c>
       <c r="C186" t="n">
-        <v>1.566146731376648</v>
+        <v>3.181430816650391</v>
       </c>
       <c r="D186" t="n">
-        <v>14.41062545776367</v>
+        <v>29.92129516601562</v>
       </c>
       <c r="E186" t="n">
-        <v>31.43169975280762</v>
+        <v>53.18901062011719</v>
       </c>
       <c r="F186" t="n">
-        <v>9904</v>
+        <v>18903</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="B187" t="n">
-        <v>23.37561225891113</v>
+        <v>38.68341827392578</v>
       </c>
       <c r="C187" t="n">
-        <v>1.589576959609985</v>
+        <v>3.154847621917725</v>
       </c>
       <c r="D187" t="n">
-        <v>13.20264530181885</v>
+        <v>30.10753440856934</v>
       </c>
       <c r="E187" t="n">
-        <v>32.44319152832031</v>
+        <v>50.90974044799805</v>
       </c>
       <c r="F187" t="n">
-        <v>19832</v>
+        <v>18785</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="B188" t="n">
-        <v>23.3962516784668</v>
+        <v>38.85372924804688</v>
       </c>
       <c r="C188" t="n">
-        <v>1.597053170204163</v>
+        <v>3.283052206039429</v>
       </c>
       <c r="D188" t="n">
-        <v>16.72748756408691</v>
+        <v>30.02039527893066</v>
       </c>
       <c r="E188" t="n">
-        <v>32.76099014282227</v>
+        <v>50.95587158203125</v>
       </c>
       <c r="F188" t="n">
-        <v>19205</v>
+        <v>18618</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="B189" t="n">
-        <v>23.45753860473633</v>
+        <v>39.04074859619141</v>
       </c>
       <c r="C189" t="n">
-        <v>1.571712374687195</v>
+        <v>3.380679368972778</v>
       </c>
       <c r="D189" t="n">
-        <v>17.42972183227539</v>
+        <v>29.96230316162109</v>
       </c>
       <c r="E189" t="n">
-        <v>32.60721588134766</v>
+        <v>51.70082092285156</v>
       </c>
       <c r="F189" t="n">
-        <v>18903</v>
+        <v>18476</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="B190" t="n">
-        <v>23.51320457458496</v>
+        <v>39.13489532470703</v>
       </c>
       <c r="C190" t="n">
-        <v>1.569654941558838</v>
+        <v>3.429117679595947</v>
       </c>
       <c r="D190" t="n">
-        <v>17.25031852722168</v>
+        <v>29.82561492919922</v>
       </c>
       <c r="E190" t="n">
-        <v>29.97938919067383</v>
+        <v>51.63760375976562</v>
       </c>
       <c r="F190" t="n">
-        <v>18785</v>
+        <v>18568</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="B191" t="n">
-        <v>23.56517219543457</v>
+        <v>39.09460067749023</v>
       </c>
       <c r="C191" t="n">
-        <v>1.64123797416687</v>
+        <v>3.41161060333252</v>
       </c>
       <c r="D191" t="n">
-        <v>17.13413429260254</v>
+        <v>29.66500663757324</v>
       </c>
       <c r="E191" t="n">
-        <v>32.27233123779297</v>
+        <v>52.34496307373047</v>
       </c>
       <c r="F191" t="n">
-        <v>18618</v>
+        <v>18438</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>30</v>
+        <v>1400</v>
       </c>
       <c r="B192" t="n">
-        <v>11.37425327301025</v>
+        <v>38.95086669921875</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9192898869514465</v>
+        <v>3.383852958679199</v>
       </c>
       <c r="D192" t="n">
-        <v>6.944043636322021</v>
+        <v>29.65133666992188</v>
       </c>
       <c r="E192" t="n">
-        <v>15.77067089080811</v>
+        <v>51.08914184570312</v>
       </c>
       <c r="F192" t="n">
-        <v>6552</v>
+        <v>18366</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="B193" t="n">
-        <v>11.67085075378418</v>
+        <v>38.86006164550781</v>
       </c>
       <c r="C193" t="n">
-        <v>0.8175229430198669</v>
+        <v>3.466327667236328</v>
       </c>
       <c r="D193" t="n">
-        <v>6.267437934875488</v>
+        <v>29.50781440734863</v>
       </c>
       <c r="E193" t="n">
-        <v>16.14314651489258</v>
+        <v>56.37725830078125</v>
       </c>
       <c r="F193" t="n">
-        <v>6240</v>
+        <v>18392</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B194" t="n">
-        <v>11.69500541687012</v>
+        <v>29.70588111877441</v>
       </c>
       <c r="C194" t="n">
-        <v>0.8765137195587158</v>
+        <v>1.849128484725952</v>
       </c>
       <c r="D194" t="n">
-        <v>5.980393409729004</v>
+        <v>25.48235321044922</v>
       </c>
       <c r="E194" t="n">
-        <v>16.43019104003906</v>
+        <v>35.72028350830078</v>
       </c>
       <c r="F194" t="n">
-        <v>6468</v>
+        <v>6552</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B195" t="n">
-        <v>11.75441074371338</v>
+        <v>30.70848274230957</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9269374012947083</v>
+        <v>1.945659756660461</v>
       </c>
       <c r="D195" t="n">
-        <v>6.267437934875488</v>
+        <v>26.15724945068359</v>
       </c>
       <c r="E195" t="n">
-        <v>19.32114219665527</v>
+        <v>37.61682891845703</v>
       </c>
       <c r="F195" t="n">
-        <v>6256</v>
+        <v>6240</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="B196" t="n">
-        <v>11.76513671875</v>
+        <v>31.42490005493164</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9537066221237183</v>
+        <v>2.116784811019897</v>
       </c>
       <c r="D196" t="n">
-        <v>6.619409561157227</v>
+        <v>26.46650695800781</v>
       </c>
       <c r="E196" t="n">
-        <v>18.90766143798828</v>
+        <v>39.63298034667969</v>
       </c>
       <c r="F196" t="n">
-        <v>6434</v>
+        <v>6468</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B197" t="n">
-        <v>11.77841377258301</v>
+        <v>32.02864074707031</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9997738003730774</v>
+        <v>2.28879189491272</v>
       </c>
       <c r="D197" t="n">
-        <v>7.145658493041992</v>
+        <v>26.2187614440918</v>
       </c>
       <c r="E197" t="n">
-        <v>17.97818183898926</v>
+        <v>40.9622688293457</v>
       </c>
       <c r="F197" t="n">
-        <v>6248</v>
+        <v>6256</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="B198" t="n">
-        <v>11.81305408477783</v>
+        <v>32.42072296142578</v>
       </c>
       <c r="C198" t="n">
-        <v>1.012630939483643</v>
+        <v>2.433947801589966</v>
       </c>
       <c r="D198" t="n">
-        <v>7.436120510101318</v>
+        <v>25.57803535461426</v>
       </c>
       <c r="E198" t="n">
-        <v>17.74922943115234</v>
+        <v>41.18609619140625</v>
       </c>
       <c r="F198" t="n">
-        <v>6180</v>
+        <v>6434</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="B199" t="n">
-        <v>11.84151077270508</v>
+        <v>32.75988388061523</v>
       </c>
       <c r="C199" t="n">
-        <v>1.038977265357971</v>
+        <v>2.55942177772522</v>
       </c>
       <c r="D199" t="n">
-        <v>7.164453029632568</v>
+        <v>25.31832885742188</v>
       </c>
       <c r="E199" t="n">
-        <v>18.1285400390625</v>
+        <v>41.78923034667969</v>
       </c>
       <c r="F199" t="n">
-        <v>6307</v>
+        <v>6248</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="B200" t="n">
-        <v>11.85602855682373</v>
+        <v>32.95531845092773</v>
       </c>
       <c r="C200" t="n">
-        <v>1.063603162765503</v>
+        <v>2.649091005325317</v>
       </c>
       <c r="D200" t="n">
-        <v>7.150784015655518</v>
+        <v>25.29440689086914</v>
       </c>
       <c r="E200" t="n">
-        <v>19.92256927490234</v>
+        <v>42.42483139038086</v>
       </c>
       <c r="F200" t="n">
-        <v>6172</v>
+        <v>6182</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="B201" t="n">
-        <v>11.86134243011475</v>
+        <v>33.13430404663086</v>
       </c>
       <c r="C201" t="n">
-        <v>1.088229775428772</v>
+        <v>2.718275785446167</v>
       </c>
       <c r="D201" t="n">
-        <v>7.19008207321167</v>
+        <v>25.44134712219238</v>
       </c>
       <c r="E201" t="n">
-        <v>20.16518974304199</v>
+        <v>43.37823104858398</v>
       </c>
       <c r="F201" t="n">
-        <v>6190</v>
+        <v>6308</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="B202" t="n">
-        <v>11.865065574646</v>
+        <v>33.27592086791992</v>
       </c>
       <c r="C202" t="n">
-        <v>1.078527450561523</v>
+        <v>2.781714677810669</v>
       </c>
       <c r="D202" t="n">
-        <v>6.814189910888672</v>
+        <v>25.61562347412109</v>
       </c>
       <c r="E202" t="n">
-        <v>20.35313606262207</v>
+        <v>44.53324508666992</v>
       </c>
       <c r="F202" t="n">
-        <v>10252</v>
+        <v>6172</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B203" t="n">
-        <v>11.86515331268311</v>
+        <v>33.36357116699219</v>
       </c>
       <c r="C203" t="n">
-        <v>1.079702854156494</v>
+        <v>2.792540311813354</v>
       </c>
       <c r="D203" t="n">
-        <v>6.8722825050354</v>
+        <v>25.35250091552734</v>
       </c>
       <c r="E203" t="n">
-        <v>20.10026359558105</v>
+        <v>45.54815292358398</v>
       </c>
       <c r="F203" t="n">
-        <v>10030</v>
+        <v>6190</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="B204" t="n">
-        <v>11.87554168701172</v>
+        <v>33.45548248291016</v>
       </c>
       <c r="C204" t="n">
-        <v>1.046795845031738</v>
+        <v>2.780905246734619</v>
       </c>
       <c r="D204" t="n">
-        <v>6.909871578216553</v>
+        <v>25.11329650878906</v>
       </c>
       <c r="E204" t="n">
-        <v>18.6889591217041</v>
+        <v>45.63016510009766</v>
       </c>
       <c r="F204" t="n">
-        <v>10152</v>
+        <v>10252</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B205" t="n">
-        <v>11.88982486724854</v>
+        <v>33.51891326904297</v>
       </c>
       <c r="C205" t="n">
-        <v>1.036669850349426</v>
+        <v>2.78061842918396</v>
       </c>
       <c r="D205" t="n">
-        <v>6.417794704437256</v>
+        <v>25.21581268310547</v>
       </c>
       <c r="E205" t="n">
-        <v>17.70480728149414</v>
+        <v>45.55157089233398</v>
       </c>
       <c r="F205" t="n">
-        <v>9904</v>
+        <v>10030</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="B206" t="n">
-        <v>11.90608310699463</v>
+        <v>33.57656860351562</v>
       </c>
       <c r="C206" t="n">
-        <v>1.095122098922729</v>
+        <v>2.818719148635864</v>
       </c>
       <c r="D206" t="n">
-        <v>1.890004754066467</v>
+        <v>25.2021427154541</v>
       </c>
       <c r="E206" t="n">
-        <v>17.36308670043945</v>
+        <v>45.98897171020508</v>
       </c>
       <c r="F206" t="n">
-        <v>19832</v>
+        <v>10152</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="B207" t="n">
-        <v>11.91306018829346</v>
+        <v>33.61270523071289</v>
       </c>
       <c r="C207" t="n">
-        <v>1.130316376686096</v>
+        <v>2.885268211364746</v>
       </c>
       <c r="D207" t="n">
-        <v>4.066761016845703</v>
+        <v>25.1269645690918</v>
       </c>
       <c r="E207" t="n">
-        <v>19.1827449798584</v>
+        <v>45.44221878051758</v>
       </c>
       <c r="F207" t="n">
-        <v>19205</v>
+        <v>9904</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="B208" t="n">
-        <v>11.96236991882324</v>
+        <v>33.6640510559082</v>
       </c>
       <c r="C208" t="n">
-        <v>1.125116348266602</v>
+        <v>2.889640092849731</v>
       </c>
       <c r="D208" t="n">
-        <v>7.504464626312256</v>
+        <v>24.87067413330078</v>
       </c>
       <c r="E208" t="n">
-        <v>18.56252288818359</v>
+        <v>44.04458618164062</v>
       </c>
       <c r="F208" t="n">
-        <v>18903</v>
+        <v>19831</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="B209" t="n">
-        <v>11.99996089935303</v>
+        <v>33.78075408935547</v>
       </c>
       <c r="C209" t="n">
-        <v>1.131390690803528</v>
+        <v>2.881958484649658</v>
       </c>
       <c r="D209" t="n">
-        <v>7.14224100112915</v>
+        <v>24.62805366516113</v>
       </c>
       <c r="E209" t="n">
-        <v>18.84273338317871</v>
+        <v>46.02997589111328</v>
       </c>
       <c r="F209" t="n">
-        <v>18785</v>
+        <v>19205</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="B210" t="n">
-        <v>12.01832962036133</v>
+        <v>33.90799713134766</v>
       </c>
       <c r="C210" t="n">
-        <v>1.180453777313232</v>
+        <v>2.876323223114014</v>
       </c>
       <c r="D210" t="n">
-        <v>6.909871578216553</v>
+        <v>24.64513969421387</v>
       </c>
       <c r="E210" t="n">
-        <v>17.82782554626465</v>
+        <v>46.04364776611328</v>
       </c>
       <c r="F210" t="n">
-        <v>18618</v>
+        <v>18903</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="B211" t="n">
-        <v>3.576715469360352</v>
+        <v>34.04323959350586</v>
       </c>
       <c r="C211" t="n">
-        <v>1.301564931869507</v>
+        <v>2.887424230575562</v>
       </c>
       <c r="D211" t="n">
-        <v>-3.871394395828247</v>
+        <v>24.54945755004883</v>
       </c>
       <c r="E211" t="n">
-        <v>8.290420532226562</v>
+        <v>44.36408996582031</v>
       </c>
       <c r="F211" t="n">
-        <v>6522</v>
+        <v>18785</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="B212" t="n">
-        <v>4.129825592041016</v>
+        <v>34.15513610839844</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9677239060401917</v>
+        <v>2.946753263473511</v>
       </c>
       <c r="D212" t="n">
-        <v>-1.214521408081055</v>
+        <v>24.51870346069336</v>
       </c>
       <c r="E212" t="n">
-        <v>8.181070327758789</v>
+        <v>46.32043838500977</v>
       </c>
       <c r="F212" t="n">
-        <v>6221</v>
+        <v>18618</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="B213" t="n">
-        <v>4.359638214111328</v>
+        <v>34.26159286499023</v>
       </c>
       <c r="C213" t="n">
-        <v>1.005576014518738</v>
+        <v>3.047073125839233</v>
       </c>
       <c r="D213" t="n">
-        <v>-1.827908754348755</v>
+        <v>24.46402740478516</v>
       </c>
       <c r="E213" t="n">
-        <v>8.204990386962891</v>
+        <v>46.90136337280273</v>
       </c>
       <c r="F213" t="n">
-        <v>6453</v>
+        <v>18476</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="B214" t="n">
-        <v>4.551358699798584</v>
+        <v>34.30155944824219</v>
       </c>
       <c r="C214" t="n">
-        <v>1.027552366256714</v>
+        <v>3.099591493606567</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.609207987785339</v>
+        <v>24.6383056640625</v>
       </c>
       <c r="E214" t="n">
-        <v>8.765411376953125</v>
+        <v>46.79884719848633</v>
       </c>
       <c r="F214" t="n">
-        <v>6239</v>
+        <v>18568</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>150</v>
+        <v>1300</v>
       </c>
       <c r="B215" t="n">
-        <v>4.663362503051758</v>
+        <v>34.22674560546875</v>
       </c>
       <c r="C215" t="n">
-        <v>1.081796050071716</v>
+        <v>3.08382248878479</v>
       </c>
       <c r="D215" t="n">
-        <v>-2.097867488861084</v>
+        <v>24.51870346069336</v>
       </c>
       <c r="E215" t="n">
-        <v>8.823503494262695</v>
+        <v>45.56523895263672</v>
       </c>
       <c r="F215" t="n">
-        <v>6419</v>
+        <v>18438</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>180</v>
+        <v>1400</v>
       </c>
       <c r="B216" t="n">
-        <v>4.69694995880127</v>
+        <v>34.08777618408203</v>
       </c>
       <c r="C216" t="n">
-        <v>1.13606858253479</v>
+        <v>3.096240282058716</v>
       </c>
       <c r="D216" t="n">
-        <v>-3.990996360778809</v>
+        <v>24.39568328857422</v>
       </c>
       <c r="E216" t="n">
-        <v>9.223316192626953</v>
+        <v>45.21668243408203</v>
       </c>
       <c r="F216" t="n">
-        <v>6233</v>
+        <v>18366</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="B217" t="n">
-        <v>4.738424301147461</v>
+        <v>33.99085235595703</v>
       </c>
       <c r="C217" t="n">
-        <v>1.165058970451355</v>
+        <v>3.170371055603027</v>
       </c>
       <c r="D217" t="n">
-        <v>-3.702242851257324</v>
+        <v>24.32392311096191</v>
       </c>
       <c r="E217" t="n">
-        <v>9.534280776977539</v>
+        <v>48.96535110473633</v>
       </c>
       <c r="F217" t="n">
-        <v>6166</v>
+        <v>18392</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="B218" t="n">
-        <v>4.774757385253906</v>
+        <v>20.72970390319824</v>
       </c>
       <c r="C218" t="n">
-        <v>1.19395112991333</v>
+        <v>1.071834921836853</v>
       </c>
       <c r="D218" t="n">
-        <v>-2.178171634674072</v>
+        <v>17.70822334289551</v>
       </c>
       <c r="E218" t="n">
-        <v>10.41591835021973</v>
+        <v>23.82159423828125</v>
       </c>
       <c r="F218" t="n">
-        <v>6286</v>
+        <v>6552</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="B219" t="n">
-        <v>4.77039098739624</v>
+        <v>21.58211708068848</v>
       </c>
       <c r="C219" t="n">
-        <v>1.240533590316772</v>
+        <v>0.9890961647033691</v>
       </c>
       <c r="D219" t="n">
-        <v>-3.107650279998779</v>
+        <v>17.76631546020508</v>
       </c>
       <c r="E219" t="n">
-        <v>11.6409854888916</v>
+        <v>25.29099082946777</v>
       </c>
       <c r="F219" t="n">
-        <v>6157</v>
+        <v>6240</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="B220" t="n">
-        <v>4.787137031555176</v>
+        <v>22.0821418762207</v>
       </c>
       <c r="C220" t="n">
-        <v>1.275028586387634</v>
+        <v>1.086673140525818</v>
       </c>
       <c r="D220" t="n">
-        <v>-3.963658809661865</v>
+        <v>18.53860282897949</v>
       </c>
       <c r="E220" t="n">
-        <v>12.48161602020264</v>
+        <v>26.22217750549316</v>
       </c>
       <c r="F220" t="n">
-        <v>6173</v>
+        <v>6468</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="B221" t="n">
-        <v>4.766731739044189</v>
+        <v>22.48092269897461</v>
       </c>
       <c r="C221" t="n">
-        <v>1.274594306945801</v>
+        <v>1.19483745098114</v>
       </c>
       <c r="D221" t="n">
-        <v>-3.915817975997925</v>
+        <v>18.37457656860352</v>
       </c>
       <c r="E221" t="n">
-        <v>13.16847324371338</v>
+        <v>27.18070220947266</v>
       </c>
       <c r="F221" t="n">
-        <v>10227</v>
+        <v>6256</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="B222" t="n">
-        <v>4.755463123321533</v>
+        <v>22.74111747741699</v>
       </c>
       <c r="C222" t="n">
-        <v>1.300175905227661</v>
+        <v>1.304683566093445</v>
       </c>
       <c r="D222" t="n">
-        <v>-3.150365352630615</v>
+        <v>17.5578670501709</v>
       </c>
       <c r="E222" t="n">
-        <v>11.85114288330078</v>
+        <v>27.8675594329834</v>
       </c>
       <c r="F222" t="n">
-        <v>10022</v>
+        <v>6434</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="B223" t="n">
-        <v>4.780989646911621</v>
+        <v>22.91699600219727</v>
       </c>
       <c r="C223" t="n">
-        <v>1.261098623275757</v>
+        <v>1.395852565765381</v>
       </c>
       <c r="D223" t="n">
-        <v>-4.882885456085205</v>
+        <v>17.30157661437988</v>
       </c>
       <c r="E223" t="n">
-        <v>10.12887382507324</v>
+        <v>28.16827201843262</v>
       </c>
       <c r="F223" t="n">
-        <v>10146</v>
+        <v>6248</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="B224" t="n">
-        <v>4.796572208404541</v>
+        <v>23.04143905639648</v>
       </c>
       <c r="C224" t="n">
-        <v>1.247516393661499</v>
+        <v>1.466987371444702</v>
       </c>
       <c r="D224" t="n">
-        <v>-2.490845680236816</v>
+        <v>17.17172241210938</v>
       </c>
       <c r="E224" t="n">
-        <v>9.254071235656738</v>
+        <v>29.18659782409668</v>
       </c>
       <c r="F224" t="n">
-        <v>9888</v>
+        <v>6182</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="B225" t="n">
-        <v>4.806085109710693</v>
+        <v>23.14889144897461</v>
       </c>
       <c r="C225" t="n">
-        <v>1.283040165901184</v>
+        <v>1.524304628372192</v>
       </c>
       <c r="D225" t="n">
-        <v>-2.586527109146118</v>
+        <v>17.17684936523438</v>
       </c>
       <c r="E225" t="n">
-        <v>9.853789329528809</v>
+        <v>29.72309875488281</v>
       </c>
       <c r="F225" t="n">
-        <v>19804</v>
+        <v>6308</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="B226" t="n">
-        <v>4.801005840301514</v>
+        <v>23.22562408447266</v>
       </c>
       <c r="C226" t="n">
-        <v>1.32033097743988</v>
+        <v>1.564305424690247</v>
       </c>
       <c r="D226" t="n">
-        <v>-2.972670793533325</v>
+        <v>17.68088531494141</v>
       </c>
       <c r="E226" t="n">
-        <v>10.20063495635986</v>
+        <v>30.76534461975098</v>
       </c>
       <c r="F226" t="n">
-        <v>19151</v>
+        <v>6172</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="B227" t="n">
-        <v>4.830618858337402</v>
+        <v>23.27596092224121</v>
       </c>
       <c r="C227" t="n">
-        <v>1.322373747825623</v>
+        <v>1.561545372009277</v>
       </c>
       <c r="D227" t="n">
-        <v>-2.902618169784546</v>
+        <v>17.78852844238281</v>
       </c>
       <c r="E227" t="n">
-        <v>10.82598304748535</v>
+        <v>31.99553680419922</v>
       </c>
       <c r="F227" t="n">
-        <v>18835</v>
+        <v>6190</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="B228" t="n">
-        <v>4.904600143432617</v>
+        <v>23.31174659729004</v>
       </c>
       <c r="C228" t="n">
-        <v>1.288552284240723</v>
+        <v>1.555414438247681</v>
       </c>
       <c r="D228" t="n">
-        <v>-2.272144794464111</v>
+        <v>18.0755729675293</v>
       </c>
       <c r="E228" t="n">
-        <v>10.16987991333008</v>
+        <v>32.26891326904297</v>
       </c>
       <c r="F228" t="n">
-        <v>18726</v>
+        <v>10252</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
+        <v>400</v>
+      </c>
+      <c r="B229" t="n">
+        <v>23.34564781188965</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.527719020843506</v>
+      </c>
+      <c r="D229" t="n">
+        <v>18.15587615966797</v>
+      </c>
+      <c r="E229" t="n">
+        <v>31.56497001647949</v>
+      </c>
+      <c r="F229" t="n">
+        <v>10030</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>450</v>
+      </c>
+      <c r="B230" t="n">
+        <v>23.36967849731445</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.536937832832336</v>
+      </c>
+      <c r="D230" t="n">
+        <v>16.23199272155762</v>
+      </c>
+      <c r="E230" t="n">
+        <v>31.48979187011719</v>
+      </c>
+      <c r="F230" t="n">
+        <v>10152</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>500</v>
+      </c>
+      <c r="B231" t="n">
+        <v>23.37282371520996</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.566146731376648</v>
+      </c>
+      <c r="D231" t="n">
+        <v>14.41062545776367</v>
+      </c>
+      <c r="E231" t="n">
+        <v>31.43169975280762</v>
+      </c>
+      <c r="F231" t="n">
+        <v>9904</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>600</v>
+      </c>
+      <c r="B232" t="n">
+        <v>23.37561225891113</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.589576959609985</v>
+      </c>
+      <c r="D232" t="n">
+        <v>13.20264530181885</v>
+      </c>
+      <c r="E232" t="n">
+        <v>32.44319152832031</v>
+      </c>
+      <c r="F232" t="n">
+        <v>19832</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>700</v>
+      </c>
+      <c r="B233" t="n">
+        <v>23.3962516784668</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.597053170204163</v>
+      </c>
+      <c r="D233" t="n">
+        <v>16.72748756408691</v>
+      </c>
+      <c r="E233" t="n">
+        <v>32.76099014282227</v>
+      </c>
+      <c r="F233" t="n">
+        <v>19205</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>800</v>
+      </c>
+      <c r="B234" t="n">
+        <v>23.45753860473633</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.571712374687195</v>
+      </c>
+      <c r="D234" t="n">
+        <v>17.42972183227539</v>
+      </c>
+      <c r="E234" t="n">
+        <v>32.60721588134766</v>
+      </c>
+      <c r="F234" t="n">
+        <v>18903</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>900</v>
+      </c>
+      <c r="B235" t="n">
+        <v>23.51320457458496</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.569654941558838</v>
+      </c>
+      <c r="D235" t="n">
+        <v>17.25031852722168</v>
+      </c>
+      <c r="E235" t="n">
+        <v>29.97938919067383</v>
+      </c>
+      <c r="F235" t="n">
+        <v>18785</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
         <v>1000</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B236" t="n">
+        <v>23.56517219543457</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.64123797416687</v>
+      </c>
+      <c r="D236" t="n">
+        <v>17.13413429260254</v>
+      </c>
+      <c r="E236" t="n">
+        <v>32.27233123779297</v>
+      </c>
+      <c r="F236" t="n">
+        <v>18618</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B237" t="n">
+        <v>23.59991455078125</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.733997464179993</v>
+      </c>
+      <c r="D237" t="n">
+        <v>17.22298049926758</v>
+      </c>
+      <c r="E237" t="n">
+        <v>33.44784545898438</v>
+      </c>
+      <c r="F237" t="n">
+        <v>18476</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B238" t="n">
+        <v>23.59304046630859</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.765895366668701</v>
+      </c>
+      <c r="D238" t="n">
+        <v>17.20589447021484</v>
+      </c>
+      <c r="E238" t="n">
+        <v>33.2701530456543</v>
+      </c>
+      <c r="F238" t="n">
+        <v>18568</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B239" t="n">
+        <v>23.53413009643555</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.740623116493225</v>
+      </c>
+      <c r="D239" t="n">
+        <v>17.21273040771484</v>
+      </c>
+      <c r="E239" t="n">
+        <v>31.0728931427002</v>
+      </c>
+      <c r="F239" t="n">
+        <v>18438</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B240" t="n">
+        <v>23.48603439331055</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.73760187625885</v>
+      </c>
+      <c r="D240" t="n">
+        <v>17.25373649597168</v>
+      </c>
+      <c r="E240" t="n">
+        <v>31.11389923095703</v>
+      </c>
+      <c r="F240" t="n">
+        <v>18366</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B241" t="n">
+        <v>23.4575138092041</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.805837869644165</v>
+      </c>
+      <c r="D241" t="n">
+        <v>17.40751075744629</v>
+      </c>
+      <c r="E241" t="n">
+        <v>35.96632385253906</v>
+      </c>
+      <c r="F241" t="n">
+        <v>18392</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>30</v>
+      </c>
+      <c r="B242" t="n">
+        <v>11.37425327301025</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.9192898869514465</v>
+      </c>
+      <c r="D242" t="n">
+        <v>6.944043636322021</v>
+      </c>
+      <c r="E242" t="n">
+        <v>15.77067089080811</v>
+      </c>
+      <c r="F242" t="n">
+        <v>6552</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>60</v>
+      </c>
+      <c r="B243" t="n">
+        <v>11.67085075378418</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.8175229430198669</v>
+      </c>
+      <c r="D243" t="n">
+        <v>6.267437934875488</v>
+      </c>
+      <c r="E243" t="n">
+        <v>16.14314651489258</v>
+      </c>
+      <c r="F243" t="n">
+        <v>6240</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>90</v>
+      </c>
+      <c r="B244" t="n">
+        <v>11.69500541687012</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.8765137195587158</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5.980393409729004</v>
+      </c>
+      <c r="E244" t="n">
+        <v>16.43019104003906</v>
+      </c>
+      <c r="F244" t="n">
+        <v>6468</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>120</v>
+      </c>
+      <c r="B245" t="n">
+        <v>11.75441074371338</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.9269374012947083</v>
+      </c>
+      <c r="D245" t="n">
+        <v>6.267437934875488</v>
+      </c>
+      <c r="E245" t="n">
+        <v>19.32114219665527</v>
+      </c>
+      <c r="F245" t="n">
+        <v>6256</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>150</v>
+      </c>
+      <c r="B246" t="n">
+        <v>11.76513671875</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.9537066221237183</v>
+      </c>
+      <c r="D246" t="n">
+        <v>6.619409561157227</v>
+      </c>
+      <c r="E246" t="n">
+        <v>18.90766143798828</v>
+      </c>
+      <c r="F246" t="n">
+        <v>6434</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>180</v>
+      </c>
+      <c r="B247" t="n">
+        <v>11.77841377258301</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.9997738003730774</v>
+      </c>
+      <c r="D247" t="n">
+        <v>7.145658493041992</v>
+      </c>
+      <c r="E247" t="n">
+        <v>17.97818183898926</v>
+      </c>
+      <c r="F247" t="n">
+        <v>6248</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>210</v>
+      </c>
+      <c r="B248" t="n">
+        <v>11.81305408477783</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.012630939483643</v>
+      </c>
+      <c r="D248" t="n">
+        <v>7.436120510101318</v>
+      </c>
+      <c r="E248" t="n">
+        <v>17.74922943115234</v>
+      </c>
+      <c r="F248" t="n">
+        <v>6180</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>240</v>
+      </c>
+      <c r="B249" t="n">
+        <v>11.84151077270508</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.038977265357971</v>
+      </c>
+      <c r="D249" t="n">
+        <v>7.164453029632568</v>
+      </c>
+      <c r="E249" t="n">
+        <v>18.1285400390625</v>
+      </c>
+      <c r="F249" t="n">
+        <v>6307</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>270</v>
+      </c>
+      <c r="B250" t="n">
+        <v>11.85602855682373</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.063603162765503</v>
+      </c>
+      <c r="D250" t="n">
+        <v>7.150784015655518</v>
+      </c>
+      <c r="E250" t="n">
+        <v>19.92256927490234</v>
+      </c>
+      <c r="F250" t="n">
+        <v>6172</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>300</v>
+      </c>
+      <c r="B251" t="n">
+        <v>11.86134243011475</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.088229775428772</v>
+      </c>
+      <c r="D251" t="n">
+        <v>7.19008207321167</v>
+      </c>
+      <c r="E251" t="n">
+        <v>20.16518974304199</v>
+      </c>
+      <c r="F251" t="n">
+        <v>6190</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>350</v>
+      </c>
+      <c r="B252" t="n">
+        <v>11.865065574646</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.078527450561523</v>
+      </c>
+      <c r="D252" t="n">
+        <v>6.814189910888672</v>
+      </c>
+      <c r="E252" t="n">
+        <v>20.35313606262207</v>
+      </c>
+      <c r="F252" t="n">
+        <v>10252</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>400</v>
+      </c>
+      <c r="B253" t="n">
+        <v>11.86515331268311</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.079702854156494</v>
+      </c>
+      <c r="D253" t="n">
+        <v>6.8722825050354</v>
+      </c>
+      <c r="E253" t="n">
+        <v>20.10026359558105</v>
+      </c>
+      <c r="F253" t="n">
+        <v>10030</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>450</v>
+      </c>
+      <c r="B254" t="n">
+        <v>11.87554168701172</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.046795845031738</v>
+      </c>
+      <c r="D254" t="n">
+        <v>6.909871578216553</v>
+      </c>
+      <c r="E254" t="n">
+        <v>18.6889591217041</v>
+      </c>
+      <c r="F254" t="n">
+        <v>10152</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>500</v>
+      </c>
+      <c r="B255" t="n">
+        <v>11.88982486724854</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.036669850349426</v>
+      </c>
+      <c r="D255" t="n">
+        <v>6.417794704437256</v>
+      </c>
+      <c r="E255" t="n">
+        <v>17.70480728149414</v>
+      </c>
+      <c r="F255" t="n">
+        <v>9904</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>600</v>
+      </c>
+      <c r="B256" t="n">
+        <v>11.90608310699463</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1.095122098922729</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.890004754066467</v>
+      </c>
+      <c r="E256" t="n">
+        <v>17.36308670043945</v>
+      </c>
+      <c r="F256" t="n">
+        <v>19832</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>700</v>
+      </c>
+      <c r="B257" t="n">
+        <v>11.91306018829346</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.130316376686096</v>
+      </c>
+      <c r="D257" t="n">
+        <v>4.066761016845703</v>
+      </c>
+      <c r="E257" t="n">
+        <v>19.1827449798584</v>
+      </c>
+      <c r="F257" t="n">
+        <v>19205</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>800</v>
+      </c>
+      <c r="B258" t="n">
+        <v>11.96236991882324</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.125116348266602</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7.504464626312256</v>
+      </c>
+      <c r="E258" t="n">
+        <v>18.56252288818359</v>
+      </c>
+      <c r="F258" t="n">
+        <v>18903</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>900</v>
+      </c>
+      <c r="B259" t="n">
+        <v>11.99996089935303</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1.131390690803528</v>
+      </c>
+      <c r="D259" t="n">
+        <v>7.14224100112915</v>
+      </c>
+      <c r="E259" t="n">
+        <v>18.84273338317871</v>
+      </c>
+      <c r="F259" t="n">
+        <v>18785</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B260" t="n">
+        <v>12.01832962036133</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1.180453777313232</v>
+      </c>
+      <c r="D260" t="n">
+        <v>6.909871578216553</v>
+      </c>
+      <c r="E260" t="n">
+        <v>17.82782554626465</v>
+      </c>
+      <c r="F260" t="n">
+        <v>18618</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B261" t="n">
+        <v>12.03800201416016</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.239210605621338</v>
+      </c>
+      <c r="D261" t="n">
+        <v>7.101234912872314</v>
+      </c>
+      <c r="E261" t="n">
+        <v>18.45488166809082</v>
+      </c>
+      <c r="F261" t="n">
+        <v>18476</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B262" t="n">
+        <v>12.04506397247314</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1.251126050949097</v>
+      </c>
+      <c r="D262" t="n">
+        <v>6.868865013122559</v>
+      </c>
+      <c r="E262" t="n">
+        <v>19.94649124145508</v>
+      </c>
+      <c r="F262" t="n">
+        <v>18568</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B263" t="n">
+        <v>12.01037406921387</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1.252374768257141</v>
+      </c>
+      <c r="D263" t="n">
+        <v>6.766349315643311</v>
+      </c>
+      <c r="E263" t="n">
+        <v>20.14126968383789</v>
+      </c>
+      <c r="F263" t="n">
+        <v>18438</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B264" t="n">
+        <v>11.99558448791504</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.263855814933777</v>
+      </c>
+      <c r="D264" t="n">
+        <v>7.012387275695801</v>
+      </c>
+      <c r="E264" t="n">
+        <v>19.18616104125977</v>
+      </c>
+      <c r="F264" t="n">
+        <v>18366</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B265" t="n">
+        <v>11.98649787902832</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1.29723048210144</v>
+      </c>
+      <c r="D265" t="n">
+        <v>6.56302547454834</v>
+      </c>
+      <c r="E265" t="n">
+        <v>20.06096649169922</v>
+      </c>
+      <c r="F265" t="n">
+        <v>18392</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>30</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.576715469360352</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.301564931869507</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-3.871394395828247</v>
+      </c>
+      <c r="E266" t="n">
+        <v>8.290420532226562</v>
+      </c>
+      <c r="F266" t="n">
+        <v>6522</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>60</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.129825592041016</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.9677239060401917</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-1.214521408081055</v>
+      </c>
+      <c r="E267" t="n">
+        <v>8.181070327758789</v>
+      </c>
+      <c r="F267" t="n">
+        <v>6221</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>90</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.359638214111328</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1.005576014518738</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-1.827908754348755</v>
+      </c>
+      <c r="E268" t="n">
+        <v>8.204990386962891</v>
+      </c>
+      <c r="F268" t="n">
+        <v>6453</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>120</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4.551358699798584</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.027552366256714</v>
+      </c>
+      <c r="D269" t="n">
+        <v>-1.609207987785339</v>
+      </c>
+      <c r="E269" t="n">
+        <v>8.765411376953125</v>
+      </c>
+      <c r="F269" t="n">
+        <v>6239</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>150</v>
+      </c>
+      <c r="B270" t="n">
+        <v>4.663362503051758</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1.081796050071716</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-2.097867488861084</v>
+      </c>
+      <c r="E270" t="n">
+        <v>8.823503494262695</v>
+      </c>
+      <c r="F270" t="n">
+        <v>6419</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>180</v>
+      </c>
+      <c r="B271" t="n">
+        <v>4.69694995880127</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.13606858253479</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-3.990996360778809</v>
+      </c>
+      <c r="E271" t="n">
+        <v>9.223316192626953</v>
+      </c>
+      <c r="F271" t="n">
+        <v>6233</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>210</v>
+      </c>
+      <c r="B272" t="n">
+        <v>4.738424301147461</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1.165058970451355</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-3.702242851257324</v>
+      </c>
+      <c r="E272" t="n">
+        <v>9.534280776977539</v>
+      </c>
+      <c r="F272" t="n">
+        <v>6166</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>240</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4.774757385253906</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1.19395112991333</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-2.178171634674072</v>
+      </c>
+      <c r="E273" t="n">
+        <v>10.41591835021973</v>
+      </c>
+      <c r="F273" t="n">
+        <v>6286</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>270</v>
+      </c>
+      <c r="B274" t="n">
+        <v>4.77039098739624</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1.240533590316772</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-3.107650279998779</v>
+      </c>
+      <c r="E274" t="n">
+        <v>11.6409854888916</v>
+      </c>
+      <c r="F274" t="n">
+        <v>6157</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>300</v>
+      </c>
+      <c r="B275" t="n">
+        <v>4.787137031555176</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1.275028586387634</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-3.963658809661865</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.48161602020264</v>
+      </c>
+      <c r="F275" t="n">
+        <v>6173</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>350</v>
+      </c>
+      <c r="B276" t="n">
+        <v>4.766731739044189</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1.274594306945801</v>
+      </c>
+      <c r="D276" t="n">
+        <v>-3.915817975997925</v>
+      </c>
+      <c r="E276" t="n">
+        <v>13.16847324371338</v>
+      </c>
+      <c r="F276" t="n">
+        <v>10227</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>400</v>
+      </c>
+      <c r="B277" t="n">
+        <v>4.755463123321533</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1.300175905227661</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-3.150365352630615</v>
+      </c>
+      <c r="E277" t="n">
+        <v>11.85114288330078</v>
+      </c>
+      <c r="F277" t="n">
+        <v>10022</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>450</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4.780989646911621</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1.261098623275757</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-4.882885456085205</v>
+      </c>
+      <c r="E278" t="n">
+        <v>10.12887382507324</v>
+      </c>
+      <c r="F278" t="n">
+        <v>10146</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>500</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4.796572208404541</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1.247516393661499</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-2.490845680236816</v>
+      </c>
+      <c r="E279" t="n">
+        <v>9.254071235656738</v>
+      </c>
+      <c r="F279" t="n">
+        <v>9888</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>600</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4.806085109710693</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1.283040165901184</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-2.586527109146118</v>
+      </c>
+      <c r="E280" t="n">
+        <v>9.853789329528809</v>
+      </c>
+      <c r="F280" t="n">
+        <v>19804</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>700</v>
+      </c>
+      <c r="B281" t="n">
+        <v>4.801005840301514</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1.32033097743988</v>
+      </c>
+      <c r="D281" t="n">
+        <v>-2.972670793533325</v>
+      </c>
+      <c r="E281" t="n">
+        <v>10.20063495635986</v>
+      </c>
+      <c r="F281" t="n">
+        <v>19151</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>800</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4.830618858337402</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.322373747825623</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-2.902618169784546</v>
+      </c>
+      <c r="E282" t="n">
+        <v>10.82598304748535</v>
+      </c>
+      <c r="F282" t="n">
+        <v>18835</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>900</v>
+      </c>
+      <c r="B283" t="n">
+        <v>4.904600143432617</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1.288552284240723</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-2.272144794464111</v>
+      </c>
+      <c r="E283" t="n">
+        <v>10.16987991333008</v>
+      </c>
+      <c r="F283" t="n">
+        <v>18726</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B284" t="n">
         <v>4.951210498809814</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C284" t="n">
         <v>1.361530780792236</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D284" t="n">
         <v>-8.122390747070312</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E284" t="n">
         <v>11.83405685424805</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F284" t="n">
         <v>18549</v>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B285" t="n">
+        <v>4.948644638061523</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1.441019535064697</v>
+      </c>
+      <c r="D285" t="n">
+        <v>-2.955584764480591</v>
+      </c>
+      <c r="E285" t="n">
+        <v>12.23557758331299</v>
+      </c>
+      <c r="F285" t="n">
+        <v>18372</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B286" t="n">
+        <v>4.90306282043457</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1.523025751113892</v>
+      </c>
+      <c r="D286" t="n">
+        <v>-3.123027563095093</v>
+      </c>
+      <c r="E286" t="n">
+        <v>11.88702392578125</v>
+      </c>
+      <c r="F286" t="n">
+        <v>18502</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4.851481914520264</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1.523171305656433</v>
+      </c>
+      <c r="D287" t="n">
+        <v>-6.16433572769165</v>
+      </c>
+      <c r="E287" t="n">
+        <v>11.98783111572266</v>
+      </c>
+      <c r="F287" t="n">
+        <v>18317</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4.851562023162842</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1.553480625152588</v>
+      </c>
+      <c r="D288" t="n">
+        <v>-6.273685932159424</v>
+      </c>
+      <c r="E288" t="n">
+        <v>10.66537475585938</v>
+      </c>
+      <c r="F288" t="n">
+        <v>18231</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4.857754707336426</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1.714037775993347</v>
+      </c>
+      <c r="D289" t="n">
+        <v>-6.256599903106689</v>
+      </c>
+      <c r="E289" t="n">
+        <v>15.21708488464355</v>
+      </c>
+      <c r="F289" t="n">
+        <v>18189</v>
+      </c>
+      <c r="G289" t="inlineStr">
         <is>
           <t>12</t>
         </is>
